--- a/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>PGTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,232 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43925</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>220200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>174800</v>
+      </c>
+      <c r="F8" s="3">
         <v>197800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>198600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>173700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>189900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>199100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>169300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>140300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>134100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>126900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>137400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>112700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>109500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>139100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>118700</v>
+      </c>
+      <c r="F9" s="3">
         <v>127800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>125600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>112500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>124100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>126100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>109300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>95500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>91200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>87100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>92800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>81000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>77900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>88700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>81100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>56100</v>
+      </c>
+      <c r="F10" s="3">
         <v>70000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>73000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>61200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>65800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>73000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>60000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>44800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>42900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>39800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>44600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>31700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>31600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -926,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,52 +1003,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>4400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>3100</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>193300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>163900</v>
+      </c>
+      <c r="F17" s="3">
         <v>172400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>169700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>156500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>169800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>170400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>139400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>127200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>117600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>112100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>117500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>103800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>98700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F18" s="3">
         <v>25400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>28900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>17200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>20100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>28700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>29900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>13100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>16500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>14800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>19900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>8900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>10800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,96 +1244,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-6400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-6800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-6700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-7100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-11800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-4100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-5300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-5500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-4600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-4900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-5200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F21" s="3">
         <v>27600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>30800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>19100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>21600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>23300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>31100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>13600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>16400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>14300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>20000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>8600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>9800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1311,96 +1390,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F23" s="3">
         <v>19000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>22200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>10500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>13000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>16900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>26300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>9000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>11200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>9300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>15300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>4000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>5600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F24" s="3">
         <v>3900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>5100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>2300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>2300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>3300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>3800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>3300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>3000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>5100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F26" s="3">
         <v>15100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>17000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>8300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>10700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>13600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>22500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>7300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>7900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>6300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>10300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>3000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>4100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F27" s="3">
         <v>15100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>17000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>8300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>10700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>13600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>22500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>7300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>7900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>6300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>10300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>3000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>4100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1589,26 +1710,26 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>-200</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>-200</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>12400</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>12400</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1619,8 +1740,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,96 +1840,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F32" s="3">
         <v>6400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>6800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>6700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>7100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>11800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>4100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>5300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>5500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>4600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>4900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>5200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F33" s="3">
         <v>15100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>17000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>8300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>10500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>13600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>22500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>7300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>20300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>6300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>10300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>3000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>4100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F35" s="3">
         <v>15100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>17000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>8300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>10500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>13600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>22500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>7300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>20300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>6300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>10300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>3000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>4100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43925</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,52 +2139,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>67600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>97200</v>
+      </c>
+      <c r="F41" s="3">
         <v>81800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>84500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>44900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>52700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>32200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>63900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>34000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>34000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>44700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>50300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>38900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>39200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,184 +2235,214 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>112700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>78600</v>
+      </c>
+      <c r="F43" s="3">
         <v>90100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>86300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>85400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>87500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>106600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>86000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>75600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>60300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>55900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>57300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>47400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>41600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>50900</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>43900</v>
+      </c>
+      <c r="F44" s="3">
         <v>47600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>45700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>48000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>44700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>46500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>35300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>35500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>37800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>39100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>35100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>33900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>30500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14600</v>
+        <v>17300</v>
       </c>
       <c r="E45" s="3">
         <v>13900</v>
       </c>
       <c r="F45" s="3">
+        <v>14600</v>
+      </c>
+      <c r="G45" s="3">
+        <v>13900</v>
+      </c>
+      <c r="H45" s="3">
         <v>15800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>10800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>12700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>10700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>14600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>12400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>9300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>8700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>11100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>11000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>249200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>233600</v>
+      </c>
+      <c r="F46" s="3">
         <v>234100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>230400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>194100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>195600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>197900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>195900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>159800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>144500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>149100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>151300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>131300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>122400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>119900</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2276,96 +2485,114 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>171800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>154600</v>
+      </c>
+      <c r="F48" s="3">
         <v>149300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>148500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>149800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>115700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>113100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>93400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>88200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>84100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>84500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>84400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>84300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>168400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>603700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>533600</v>
+      </c>
+      <c r="F49" s="3">
         <v>537500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>541600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>545600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>549600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>548400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>219800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>221400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>223100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>224800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>225800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>227400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>229000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>230600</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,19 +2685,25 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1000</v>
       </c>
-      <c r="E52" s="3">
-        <v>1200</v>
-      </c>
       <c r="F52" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="G52" s="3">
         <v>1200</v>
@@ -2473,31 +2712,37 @@
         <v>1200</v>
       </c>
       <c r="I52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1400</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1400</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1300</v>
       </c>
       <c r="M52" s="3">
         <v>1400</v>
       </c>
       <c r="N52" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="O52" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="P52" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R52" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1025600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>922700</v>
+      </c>
+      <c r="F54" s="3">
         <v>921800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>921500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>890700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>862200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>860500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>510400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>470800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>453100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>459600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>462900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>444100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>436600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>434900</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,75 +2879,83 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>63700</v>
+        <v>72100</v>
       </c>
       <c r="E57" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>58800</v>
+      </c>
+      <c r="G57" s="3">
         <v>67500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>54300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>15300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>69900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>45900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>39600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>12900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>40300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>33000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>26000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>7900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>300</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
@@ -2697,195 +2964,225 @@
         <v>300</v>
       </c>
       <c r="M58" s="3">
+        <v>300</v>
+      </c>
+      <c r="N58" s="3">
+        <v>300</v>
+      </c>
+      <c r="O58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2100</v>
+        <v>10300</v>
       </c>
       <c r="E59" s="3">
+        <v>42700</v>
+      </c>
+      <c r="F59" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G59" s="3">
         <v>9400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>9600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>53300</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="3">
-        <v>28200</v>
+      <c r="K59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
+      <c r="M59" s="3">
+        <v>28200</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O59" s="3">
-        <v>14900</v>
+      <c r="O59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>14900</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>82400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>56100</v>
+      </c>
+      <c r="F60" s="3">
         <v>65800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>76900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>64100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>68700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>70200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>46200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>39900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>41400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>40600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>33700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>26000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>22800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>421200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>369000</v>
+      </c>
+      <c r="F61" s="3">
         <v>367900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>367500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>367000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>366600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>373900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>215100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>214600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>212700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>231200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>248600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>248500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>247900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>247200</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>66100</v>
+      </c>
+      <c r="F62" s="3">
         <v>62400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>62800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>63800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>41300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>40100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>40300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>31700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>23700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>33300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>33200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>33100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>33100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>580600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>491200</v>
+      </c>
+      <c r="F66" s="3">
         <v>496200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>507200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>494900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>476600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>484200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>301600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>286200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>277800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>305100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>315500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>307700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>303800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>307300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>34800</v>
+      </c>
+      <c r="F72" s="3">
         <v>31500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>16400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-8900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-19400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-32900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-55500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-64700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-85000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-91300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-101600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-104600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-108800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>445100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>431500</v>
+      </c>
+      <c r="F76" s="3">
         <v>425600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>414400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>395800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>385500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>376300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>208800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>184500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>175300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>154500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>147500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>136400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>132900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>127700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43925</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43827</v>
+      </c>
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F81" s="3">
         <v>15100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>17000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>8300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>10500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>13600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>22500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>7300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>20300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>6300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>10300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>3000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>4100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,52 +4024,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F83" s="3">
         <v>8600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>8700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>8500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>8600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>6400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>4800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>4600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>5200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>5100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>4700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>4600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>4200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>26900</v>
+      </c>
+      <c r="F89" s="3">
         <v>9700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>43700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>35800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>24700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>31000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>8900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>14400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>17700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>14300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>2700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>13200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,52 +4394,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-4700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-8300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-8000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-6800</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-6600</v>
       </c>
       <c r="K91" s="3">
         <v>-8200</v>
       </c>
       <c r="L91" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="N91" s="3">
         <v>-3300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-3100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-4400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,52 +4540,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-92400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-7300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-4700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-8300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-7300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-362000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-2400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-6600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-5100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-3100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-4400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,52 +4810,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-5100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-8000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>305600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-19900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-19900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,48 +4910,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>15400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>39600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-7700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>20500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-31800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>29900</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-10700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-5600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>11400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>9300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>PGTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44016</v>
+      </c>
+      <c r="E7" s="2">
         <v>43925</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>202800</v>
+      </c>
+      <c r="E8" s="3">
         <v>220200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>174800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>197800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>198600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>173700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>189900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>199100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>169300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>140300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>134100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>126900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>137400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>112700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>109500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>128300</v>
+      </c>
+      <c r="E9" s="3">
         <v>139100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>118700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>127800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>125600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>112500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>124100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>126100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>109300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>95500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>91200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>87100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>92800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>81000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>77900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>88700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>74500</v>
+      </c>
+      <c r="E10" s="3">
         <v>81100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>56100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>70000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>73000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>61200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>65800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>73000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>60000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>44800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>42900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>39800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>44600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>31700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>31600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,46 +1025,49 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1500</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>4400</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>3100</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>194200</v>
+      </c>
+      <c r="E17" s="3">
         <v>193300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>163900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>172400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>169700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>156500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>169800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>170400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>139400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>127200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>117600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>112100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>117500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>103800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>98700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E18" s="3">
         <v>26900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>25400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>28900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>17200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>20100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>28700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>29900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>14800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>19900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-11800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E21" s="3">
         <v>29700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>13400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>27600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>30800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>19100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>21600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>23300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>31100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>16400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>14300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>20000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>19700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>19000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>22200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>10500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>13000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>16900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>26300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>11200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>15300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E24" s="3">
         <v>4100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2300</v>
       </c>
       <c r="I24" s="3">
         <v>2300</v>
       </c>
       <c r="J24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K24" s="3">
         <v>3300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E26" s="3">
         <v>15600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>15100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>17000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>10700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>13600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>22500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>10300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E27" s="3">
         <v>15600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>15100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>17000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>10700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>13600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>22500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1716,11 +1776,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>-200</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1728,11 +1788,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>12400</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E32" s="3">
         <v>7200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>11800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E33" s="3">
         <v>15600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>15100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>17000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>10500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>13600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>22500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>20300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E35" s="3">
         <v>15600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>15100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>17000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>10500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>13600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>22500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>20300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44016</v>
+      </c>
+      <c r="E38" s="2">
         <v>43925</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>98400</v>
+      </c>
+      <c r="E41" s="3">
         <v>67600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>97200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>81800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>84500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>44900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>52700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>32200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>63900</v>
-      </c>
-      <c r="L41" s="3">
-        <v>34000</v>
       </c>
       <c r="M41" s="3">
         <v>34000</v>
       </c>
       <c r="N41" s="3">
+        <v>34000</v>
+      </c>
+      <c r="O41" s="3">
         <v>44700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>50300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>38900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>39200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,58 +2330,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>108500</v>
+      </c>
+      <c r="E43" s="3">
         <v>112700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>78600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>90100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>86300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>85400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>87500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>106600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>86000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>75600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>60300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>55900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>57300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>47400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>41600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>50900</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2300,149 +2395,158 @@
         <v>51600</v>
       </c>
       <c r="E44" s="3">
+        <v>51600</v>
+      </c>
+      <c r="F44" s="3">
         <v>43900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>47600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>45700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>48000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>44700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>46500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>35300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>35500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>37800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>39100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>35100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>33900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>30500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E45" s="3">
         <v>17300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>277100</v>
+      </c>
+      <c r="E46" s="3">
         <v>249200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>233600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>234100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>230400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>194100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>195600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>197900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>195900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>159800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>144500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>149100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>151300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>131300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>122400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>119900</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>169400</v>
+      </c>
+      <c r="E48" s="3">
         <v>171800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>154600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>149300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>148500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>149800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>115700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>113100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>93400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>88200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>84100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>84500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>84400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>84300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>168400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>593400</v>
+      </c>
+      <c r="E49" s="3">
         <v>603700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>533600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>537500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>541600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>545600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>549600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>548400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>219800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>221400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>223100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>224800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>225800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>227400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>229000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>230600</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,22 +2807,25 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="3">
         <v>900</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1000</v>
       </c>
       <c r="F52" s="3">
         <v>1000</v>
       </c>
       <c r="G52" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="H52" s="3">
         <v>1200</v>
@@ -2718,31 +2837,34 @@
         <v>1200</v>
       </c>
       <c r="K52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L52" s="3">
         <v>1300</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1400</v>
       </c>
       <c r="M52" s="3">
         <v>1400</v>
       </c>
       <c r="N52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O52" s="3">
         <v>1300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1040900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1025600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>922700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>921800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>921500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>890700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>862200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>860500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>510400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>470800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>453100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>459600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>462900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>444100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>436600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>434900</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>89500</v>
+      </c>
+      <c r="E57" s="3">
         <v>72100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>58800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>67500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>54300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>15300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>69900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>45900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>39600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>40300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>33000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>26000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2942,23 +3075,23 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>200</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
       </c>
       <c r="K58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>300</v>
@@ -2970,42 +3103,45 @@
         <v>300</v>
       </c>
       <c r="O58" s="3">
+        <v>300</v>
+      </c>
+      <c r="P58" s="3">
         <v>700</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E59" s="3">
         <v>10300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>42700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>53300</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
@@ -3013,11 +3149,11 @@
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3">
         <v>28200</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>8</v>
@@ -3025,164 +3161,176 @@
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="3">
         <v>14900</v>
       </c>
-      <c r="R59" s="3" t="s">
+      <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>95600</v>
+      </c>
+      <c r="E60" s="3">
         <v>82400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>56100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>65800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>76900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>64100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>68700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>70200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>46200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>39900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>41400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>40600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>33700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>26000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>421500</v>
+      </c>
+      <c r="E61" s="3">
         <v>421200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>369000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>367900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>367500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>367000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>366600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>373900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>215100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>214600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>212700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>231200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>248600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>248500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>247900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>247200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>72800</v>
+      </c>
+      <c r="E62" s="3">
         <v>76900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>66100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>62400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>62800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>63800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>41300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>40100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>40300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>31700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>23700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>33300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>33200</v>
-      </c>
-      <c r="P62" s="3">
-        <v>33100</v>
       </c>
       <c r="Q62" s="3">
         <v>33100</v>
       </c>
       <c r="R62" s="3">
+        <v>33100</v>
+      </c>
+      <c r="S62" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>589900</v>
+      </c>
+      <c r="E66" s="3">
         <v>580600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>491200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>496200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>507200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>494900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>476600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>484200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>301600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>286200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>277800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>305100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>315500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>307700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>303800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>307300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>52600</v>
+      </c>
+      <c r="E72" s="3">
         <v>50400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>34800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>31500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-32900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-55500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-64700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-85000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-91300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-101600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-104600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-108800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>451000</v>
+      </c>
+      <c r="E76" s="3">
         <v>445100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>431500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>425600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>414400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>395800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>385500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>376300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>208800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>184500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>175300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>154500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>147500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>136400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>132900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>127700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44016</v>
+      </c>
+      <c r="E80" s="2">
         <v>43925</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E81" s="3">
         <v>15600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>15100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>17000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>10500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>13600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>22500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>20300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E83" s="3">
         <v>9900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E89" s="3">
         <v>10900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>26900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>43700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>35800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>24700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>31000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>17700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>14300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>13200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-92400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-362000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>51800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>305600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2200</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-19900</v>
       </c>
       <c r="N100" s="3">
         <v>-19900</v>
       </c>
       <c r="O100" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-29700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>39600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>20500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-31800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>29900</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-10700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>9300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>PGTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,256 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43925</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E8" s="3">
         <v>202800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>220200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>174800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>197800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>198600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>173700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>189900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>199100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>169300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>140300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>134100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>126900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>137400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>112700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>109500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>151100</v>
+      </c>
+      <c r="E9" s="3">
         <v>128300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>139100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>118700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>127800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>125600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>112500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>124100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>126100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>109300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>95500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>91200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>87100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>92800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>81000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>77900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>88700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>86900</v>
+      </c>
+      <c r="E10" s="3">
         <v>74500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>81100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>56100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>70000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>73000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>61200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>65800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>73000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>60000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>44800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>42900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>39800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>44600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>31700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>31600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +934,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,49 +1044,52 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
         <v>12300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1500</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>4400</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>3100</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1081,8 +1100,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>208100</v>
+      </c>
+      <c r="E17" s="3">
         <v>194200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>193300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>163900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>172400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>169700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>156500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>169800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>170400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>139400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>127200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>117600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>112100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>117500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>103800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>98700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E18" s="3">
         <v>8600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>26900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>25400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>28900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>17200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>20100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>28700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>29900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>14800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>19900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>8900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1311,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,105 +1321,111 @@
         <v>-6900</v>
       </c>
       <c r="E20" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-7200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-11800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E21" s="3">
         <v>12700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>29700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>13400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>27600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>30800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>19100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>21600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>23300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>31100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>13600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>16400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>14300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>20000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1477,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>19700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>19000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>22200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>10500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>13000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>16900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>26300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>11200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>15300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>2300</v>
       </c>
       <c r="J24" s="3">
         <v>2300</v>
       </c>
       <c r="K24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L24" s="3">
         <v>3300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E26" s="3">
         <v>2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>15600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>15100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>17000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>10700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>13600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>22500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>10300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E27" s="3">
         <v>2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>15600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>15100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>17000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>10700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>13600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>22500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>10300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1779,11 +1839,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-200</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1791,11 +1851,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>12400</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1869,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1981,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,105 +1993,111 @@
         <v>6900</v>
       </c>
       <c r="E32" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F32" s="3">
         <v>7200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>11800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E33" s="3">
         <v>2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>15600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>15100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>17000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>10500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>13600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>22500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>20300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>10300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E35" s="3">
         <v>2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>15600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>15100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>17000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>10500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>13600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>22500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>20300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>10300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43925</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2312,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>99300</v>
+      </c>
+      <c r="E41" s="3">
         <v>98400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>67600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>97200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>81800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>84500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>44900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>52700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>32200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>63900</v>
-      </c>
-      <c r="M41" s="3">
-        <v>34000</v>
       </c>
       <c r="N41" s="3">
         <v>34000</v>
       </c>
       <c r="O41" s="3">
+        <v>34000</v>
+      </c>
+      <c r="P41" s="3">
         <v>44700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>50300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>38900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>39200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,220 +2422,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>123100</v>
+      </c>
+      <c r="E43" s="3">
         <v>108500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>112700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>78600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>90100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>86300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>85400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>87500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>106600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>86000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>75600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>60300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>55900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>57300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>47400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>41600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>50900</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>51600</v>
+        <v>54700</v>
       </c>
       <c r="E44" s="3">
         <v>51600</v>
       </c>
       <c r="F44" s="3">
+        <v>51600</v>
+      </c>
+      <c r="G44" s="3">
         <v>43900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>47600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>45700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>48000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>44700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>46500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>35300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>35500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>37800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>39100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>35100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>33900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>30500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E45" s="3">
         <v>18700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>297800</v>
+      </c>
+      <c r="E46" s="3">
         <v>277100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>249200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>233600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>234100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>230400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>194100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>195600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>197900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>195900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>159800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>144500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>149100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>151300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>131300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>122400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>119900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,114 +2702,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>171600</v>
+      </c>
+      <c r="E48" s="3">
         <v>169400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>171800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>154600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>149300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>148500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>149800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>115700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>113100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>93400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>88200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>84100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>84500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>84400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>84300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>168400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>589600</v>
+      </c>
+      <c r="E49" s="3">
         <v>593400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>603700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>533600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>537500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>541600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>545600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>549600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>548400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>219800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>221400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>223100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>224800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>225800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>227400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>229000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>230600</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,25 +2926,28 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>900</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1000</v>
       </c>
       <c r="G52" s="3">
         <v>1000</v>
       </c>
       <c r="H52" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="I52" s="3">
         <v>1200</v>
@@ -2840,31 +2959,34 @@
         <v>1200</v>
       </c>
       <c r="L52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M52" s="3">
         <v>1300</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1400</v>
       </c>
       <c r="N52" s="3">
         <v>1400</v>
       </c>
       <c r="O52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P52" s="3">
         <v>1300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3038,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1060100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1040900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1025600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>922700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>921800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>921500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>890700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>862200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>860500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>510400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>470800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>453100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>459600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>462900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>444100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>436600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>434900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3140,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>96100</v>
+      </c>
+      <c r="E57" s="3">
         <v>89500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>72100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>58800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>67500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>54300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>15300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>69900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>45900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>39600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>40300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>33000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>26000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3078,23 +3211,23 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
       </c>
       <c r="L58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M58" s="3">
         <v>300</v>
@@ -3106,45 +3239,48 @@
         <v>300</v>
       </c>
       <c r="P58" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q58" s="3">
         <v>700</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E59" s="3">
         <v>6100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>42700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>53300</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
@@ -3152,11 +3288,11 @@
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3">
         <v>28200</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
@@ -3164,173 +3300,185 @@
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3">
         <v>14900</v>
       </c>
-      <c r="S59" s="3" t="s">
+      <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>102800</v>
+      </c>
+      <c r="E60" s="3">
         <v>95600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>82400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>56100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>65800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>76900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>64100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>68700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>70200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>46200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>39900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>41400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>40600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>33700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>26000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>22800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>411800</v>
+      </c>
+      <c r="E61" s="3">
         <v>421500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>421200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>369000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>367900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>367500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>367000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>366600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>373900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>215100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>214600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>212700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>231200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>248600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>248500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>247900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>247200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>74100</v>
+      </c>
+      <c r="E62" s="3">
         <v>72800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>76900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>66100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>62400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>62800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>63800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>41300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>40100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>40300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>31700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>23700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>33300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>33200</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>33100</v>
       </c>
       <c r="R62" s="3">
         <v>33100</v>
       </c>
       <c r="S62" s="3">
+        <v>33100</v>
+      </c>
+      <c r="T62" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3642,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>588800</v>
+      </c>
+      <c r="E66" s="3">
         <v>589900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>580600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>491200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>496200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>507200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>494900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>476600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>484200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>301600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>286200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>277800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>305100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>315500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>307700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>303800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>307300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3944,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E72" s="3">
         <v>52600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>50400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>34800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>31500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>16400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-32900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-55500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-64700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-85000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-91300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-101600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-104600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-108800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4168,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>471400</v>
+      </c>
+      <c r="E76" s="3">
         <v>451000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>445100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>431500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>425600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>414400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>395800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>385500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>376300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>208800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>184500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>175300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>154500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>147500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>136400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>132900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>127700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43925</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E81" s="3">
         <v>2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>15600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>15100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>17000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>10500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>13600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>22500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>20300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>10300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4421,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E83" s="3">
         <v>10900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E89" s="3">
         <v>35600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>26900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>43700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>35800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>24700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>31000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>14400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>17700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>14300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>13200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4835,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-92400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-362000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5303,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>51800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>305600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2200</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-19900</v>
       </c>
       <c r="O100" s="3">
         <v>-19900</v>
       </c>
       <c r="P100" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5415,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>30800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-29700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>15400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>39600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>20500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-31800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>29900</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-10700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>9300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>PGTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,256 +665,268 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E7" s="2">
         <v>44107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43925</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>221600</v>
+      </c>
+      <c r="E8" s="3">
         <v>238000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>202800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>220200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>174800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>197800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>198600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>173700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>189900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>199100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>169300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>140300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>134100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>126900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>137400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>112700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>109500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>142800</v>
+      </c>
+      <c r="E9" s="3">
         <v>151100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>128300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>139100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>118700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>127800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>125600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>112500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>124100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>126100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>109300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>95500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>91200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>87100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>92800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>81000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>77900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>88700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>78800</v>
+      </c>
+      <c r="E10" s="3">
         <v>86900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>74500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>81100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>56100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>70000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>73000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>61200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>65800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>73000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>60000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>44800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>42900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>39800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>44600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>31700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>31600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,8 +947,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,52 +1063,55 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>12300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>4400</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>3100</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1103,8 +1122,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1181,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1203,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>202300</v>
+      </c>
+      <c r="E17" s="3">
         <v>208100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>194200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>193300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>163900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>172400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>169700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>156500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>169800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>170400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>139400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>127200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>117600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>112100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>117500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>103800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>98700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E18" s="3">
         <v>29900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>26900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>25400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>28900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>17200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>20100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>28700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>29900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>16500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>14800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>19900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>8900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,120 +1344,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="E20" s="3">
         <v>-6900</v>
       </c>
       <c r="F20" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="G20" s="3">
         <v>-7200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-11800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-5200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E21" s="3">
         <v>33800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>29700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>13400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>27600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>30800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>19100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>21600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>23300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>31100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>13600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>16400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>14300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>20000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1480,120 +1519,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E23" s="3">
         <v>23000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>19700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>19000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>22200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>10500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>13000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>16900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>26300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>11200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>15300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E24" s="3">
         <v>5700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>2300</v>
       </c>
       <c r="K24" s="3">
         <v>2300</v>
       </c>
       <c r="L24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M24" s="3">
         <v>3300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1696,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E26" s="3">
         <v>17300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>15600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>15100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>17000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>13600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>22500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>10300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E27" s="3">
         <v>17300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>15600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>15100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>17000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>13600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>22500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>10300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1842,11 +1902,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-200</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1854,11 +1914,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>12400</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1872,8 +1932,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,120 +2050,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="E32" s="3">
         <v>6900</v>
       </c>
       <c r="F32" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G32" s="3">
         <v>7200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>11800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>5200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E33" s="3">
         <v>17300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>15600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>15100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>17000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>13600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>22500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>20300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>10300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2227,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E35" s="3">
         <v>17300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>15600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>15100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>17000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>13600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>22500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>20300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>10300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E38" s="2">
         <v>44107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43925</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,64 +2398,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100300</v>
+      </c>
+      <c r="E41" s="3">
         <v>99300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>98400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>67600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>97200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>81800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>84500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>44900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>52700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>32200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>63900</v>
-      </c>
-      <c r="N41" s="3">
-        <v>34000</v>
       </c>
       <c r="O41" s="3">
         <v>34000</v>
       </c>
       <c r="P41" s="3">
+        <v>34000</v>
+      </c>
+      <c r="Q41" s="3">
         <v>44700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>50300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>38900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>39200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,232 +2514,247 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>121600</v>
+      </c>
+      <c r="E43" s="3">
         <v>123100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>108500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>112700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>78600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>90100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>86300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>85400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>87500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>106600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>86000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>75600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>60300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>55900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>57300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>47400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>41600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>50900</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E44" s="3">
         <v>54700</v>
-      </c>
-      <c r="E44" s="3">
-        <v>51600</v>
       </c>
       <c r="F44" s="3">
         <v>51600</v>
       </c>
       <c r="G44" s="3">
+        <v>51600</v>
+      </c>
+      <c r="H44" s="3">
         <v>43900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>47600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>45700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>48000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>44700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>46500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>35300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>35500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>37800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>39100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>35100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>33900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>30500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E45" s="3">
         <v>20600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>8700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>11000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>301700</v>
+      </c>
+      <c r="E46" s="3">
         <v>297800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>277100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>249200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>233600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>234100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>230400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>194100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>195600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>197900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>195900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>159800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>144500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>149100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>151300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>131300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>122400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>119900</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2705,120 +2809,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>173700</v>
+      </c>
+      <c r="E48" s="3">
         <v>171600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>169400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>171800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>154600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>149300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>148500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>149800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>115700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>113100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>93400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>88200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>84100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>84500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>84400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>84300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>168400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>586200</v>
+      </c>
+      <c r="E49" s="3">
         <v>589600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>593400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>603700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>533600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>537500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>541600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>545600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>549600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>548400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>219800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>221400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>223100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>224800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>225800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>227400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>229000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>230600</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,28 +3045,31 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>900</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1000</v>
       </c>
       <c r="H52" s="3">
         <v>1000</v>
       </c>
       <c r="I52" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="J52" s="3">
         <v>1200</v>
@@ -2962,31 +3081,34 @@
         <v>1200</v>
       </c>
       <c r="M52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N52" s="3">
         <v>1300</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1400</v>
       </c>
       <c r="O52" s="3">
         <v>1400</v>
       </c>
       <c r="P52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,64 +3163,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1062500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1060100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1040900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1025600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>922700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>921800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>921500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>890700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>862200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>860500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>510400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>470800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>453100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>459600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>462900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>444100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>436600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>434900</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,64 +3270,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E57" s="3">
         <v>96100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>89500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>72100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>13400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>58800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>67500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>54300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>69900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>45900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>39600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>40300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>33000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>26000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3214,23 +3347,23 @@
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
       </c>
       <c r="M58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
@@ -3242,48 +3375,51 @@
         <v>300</v>
       </c>
       <c r="Q58" s="3">
+        <v>300</v>
+      </c>
+      <c r="R58" s="3">
         <v>700</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>42700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>53300</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
@@ -3291,11 +3427,11 @@
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="3">
         <v>28200</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
@@ -3303,182 +3439,194 @@
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T59" s="3">
         <v>14900</v>
       </c>
-      <c r="T59" s="3" t="s">
+      <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>90500</v>
+      </c>
+      <c r="E60" s="3">
         <v>102800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>95600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>82400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>56100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>65800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>76900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>64100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>68700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>70200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>46200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>39900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>41400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>40600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>33700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>26000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>22800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>412100</v>
+      </c>
+      <c r="E61" s="3">
         <v>411800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>421500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>421200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>369000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>367900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>367500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>367000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>366600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>373900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>215100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>214600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>212700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>231200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>248600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>248500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>247900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>247200</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>74800</v>
+      </c>
+      <c r="E62" s="3">
         <v>74100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>72800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>76900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>66100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>62400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>62800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>63800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>41300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>40100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>40300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>31700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>23700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>33300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>33200</v>
-      </c>
-      <c r="R62" s="3">
-        <v>33100</v>
       </c>
       <c r="S62" s="3">
         <v>33100</v>
       </c>
       <c r="T62" s="3">
+        <v>33100</v>
+      </c>
+      <c r="U62" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,64 +3799,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>577400</v>
+      </c>
+      <c r="E66" s="3">
         <v>588800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>589900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>580600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>491200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>496200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>507200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>494900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>476600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>484200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>301600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>286200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>277800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>305100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>315500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>307700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>303800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>307300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,64 +4117,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E72" s="3">
         <v>69900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>52600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>50400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>34800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>31500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>16400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-19400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-32900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-55500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-64700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-85000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-91300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-101600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-104600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-108800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,64 +4353,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>485100</v>
+      </c>
+      <c r="E76" s="3">
         <v>471400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>451000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>445100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>431500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>425600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>414400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>395800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>385500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>376300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>208800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>184500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>175300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>154500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>147500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>136400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>132900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>127700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4471,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E80" s="2">
         <v>44107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43925</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E81" s="3">
         <v>17300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>15600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>15100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>17000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>13600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>22500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>20300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>10300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,64 +4619,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E83" s="3">
         <v>10800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4971,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E89" s="3">
         <v>18900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>35600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>26900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>43700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>35800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>24700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>31000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>14400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>17700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>14300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>13200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,64 +5055,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,64 +5230,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-92400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-362000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,64 +5548,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-10000</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>51800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>305600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2200</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-19900</v>
       </c>
       <c r="P100" s="3">
         <v>-19900</v>
       </c>
       <c r="Q100" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5418,8 +5666,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5427,51 +5678,54 @@
         <v>1000</v>
       </c>
       <c r="E102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F102" s="3">
         <v>30800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-29700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>15400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>39600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>20500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-31800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>29900</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-10700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>9300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>PGTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,268 +665,280 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44198</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44107</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44016</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43925</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>271100</v>
+      </c>
+      <c r="E8" s="3">
         <v>221600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>238000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>202800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>220200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>174800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>197800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>198600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>173700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>189900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>199100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>169300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>140300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>134100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>126900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>137400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>112700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>109500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>177100</v>
+      </c>
+      <c r="E9" s="3">
         <v>142800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>151100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>128300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>139100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>118700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>127800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>125600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>112500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>124100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>126100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>109300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>95500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>91200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>87100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>92800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>81000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>77900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>88700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E10" s="3">
         <v>78800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>86900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>74500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>81100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>56100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>70000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>73000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>61200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>65800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>73000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>60000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>44800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>42900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>39800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>44600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>31700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>31600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -948,8 +960,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1007,8 +1020,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,55 +1082,58 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>12300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1500</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>4400</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>3100</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1125,8 +1144,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,8 +1206,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,126 +1229,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>246900</v>
+      </c>
+      <c r="E17" s="3">
         <v>202300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>208100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>194200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>193300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>163900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>172400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>169700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>156500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>169800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>170400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>139400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>127200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>117600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>112100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>117500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>103800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>98700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E18" s="3">
         <v>19300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>29900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>26900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>25400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>28900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>17200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>20100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>28700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>29900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>16500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>14800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>19900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>8900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,126 +1377,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6700</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-6900</v>
       </c>
       <c r="F20" s="3">
         <v>-6900</v>
       </c>
       <c r="G20" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="H20" s="3">
         <v>-7200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-11800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-5200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E21" s="3">
         <v>23700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>33800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>29700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>13400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>27600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>30800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>19100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>21600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>23300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>31100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>13600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>16400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>14300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>20000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1522,126 +1561,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E23" s="3">
         <v>12500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>23000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>19700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>19000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>22200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>13000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>16900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>26300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>11200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>15300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E24" s="3">
         <v>2500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>2300</v>
       </c>
       <c r="L24" s="3">
         <v>2300</v>
       </c>
       <c r="M24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N24" s="3">
         <v>3300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,126 +1747,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E26" s="3">
         <v>10000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>17300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>15600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>15100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>17000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>13600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>22500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>10300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E27" s="3">
         <v>10000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>17300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>15600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>15100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>17000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>13600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>22500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,8 +1933,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1905,11 +1965,11 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-200</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1917,11 +1977,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>12400</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1935,8 +1995,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2057,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,126 +2119,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E32" s="3">
         <v>6700</v>
-      </c>
-      <c r="E32" s="3">
-        <v>6900</v>
       </c>
       <c r="F32" s="3">
         <v>6900</v>
       </c>
       <c r="G32" s="3">
+        <v>6900</v>
+      </c>
+      <c r="H32" s="3">
         <v>7200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>11800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>5200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E33" s="3">
         <v>10000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>17300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>15600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>15100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>17000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>13600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>22500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>20300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,131 +2305,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E35" s="3">
         <v>10000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>17300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>15600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>15100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>17000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>13600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>22500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>20300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>10300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44198</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44107</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44016</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43925</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2460,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,67 +2484,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E41" s="3">
         <v>100300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>99300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>98400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>67600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>97200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>81800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>84500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>44900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>52700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>32200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>63900</v>
-      </c>
-      <c r="O41" s="3">
-        <v>34000</v>
       </c>
       <c r="P41" s="3">
         <v>34000</v>
       </c>
       <c r="Q41" s="3">
+        <v>34000</v>
+      </c>
+      <c r="R41" s="3">
         <v>44700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>50300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>38900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>39200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2517,244 +2606,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>166500</v>
+      </c>
+      <c r="E43" s="3">
         <v>121600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>123100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>108500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>112700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>78600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>90100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>86300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>85400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>87500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>106600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>86000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>75600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>60300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>55900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>57300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>47400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>41600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>50900</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>72400</v>
+      </c>
+      <c r="E44" s="3">
         <v>60300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>54700</v>
-      </c>
-      <c r="F44" s="3">
-        <v>51600</v>
       </c>
       <c r="G44" s="3">
         <v>51600</v>
       </c>
       <c r="H44" s="3">
+        <v>51600</v>
+      </c>
+      <c r="I44" s="3">
         <v>43900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>47600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>45700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>48000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>44700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>46500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>35300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>35500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>37800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>39100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>35100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>33900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>30500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E45" s="3">
         <v>19500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>20600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>11100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>11000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>326300</v>
+      </c>
+      <c r="E46" s="3">
         <v>301700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>297800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>277100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>249200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>233600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>234100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>230400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>194100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>195600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>197900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>195900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>159800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>144500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>149100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>151300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>131300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>122400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>119900</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2812,126 +2916,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>225900</v>
+      </c>
+      <c r="E48" s="3">
         <v>173700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>171600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>169400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>171800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>154600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>149300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>148500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>149800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>115700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>113100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>93400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>88200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>84100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>84500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>84400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>84300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>168400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>684200</v>
+      </c>
+      <c r="E49" s="3">
         <v>586200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>589600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>593400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>603700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>533600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>537500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>541600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>545600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>549600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>548400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>219800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>221400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>223100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>224800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>225800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>227400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>229000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>230600</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3102,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,31 +3164,34 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E52" s="3">
         <v>900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>900</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1000</v>
       </c>
       <c r="I52" s="3">
         <v>1000</v>
       </c>
       <c r="J52" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K52" s="3">
         <v>1200</v>
@@ -3084,31 +3203,34 @@
         <v>1200</v>
       </c>
       <c r="N52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O52" s="3">
         <v>1300</v>
-      </c>
-      <c r="O52" s="3">
-        <v>1400</v>
       </c>
       <c r="P52" s="3">
         <v>1400</v>
       </c>
       <c r="Q52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R52" s="3">
         <v>1300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,67 +3288,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1239700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1062500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1060100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1040900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1025600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>922700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>921800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>921500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>890700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>862200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>860500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>510400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>470800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>453100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>459600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>462900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>444100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>436600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>434900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3376,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,67 +3400,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>111900</v>
+      </c>
+      <c r="E57" s="3">
         <v>23500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>96100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>89500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>72100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>13400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>58800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>67500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>54300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>69900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>45900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>39600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>40300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>33000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>26000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3350,23 +3483,23 @@
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>200</v>
       </c>
       <c r="M58" s="3">
         <v>200</v>
       </c>
       <c r="N58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O58" s="3">
         <v>300</v>
@@ -3378,51 +3511,54 @@
         <v>300</v>
       </c>
       <c r="R58" s="3">
+        <v>300</v>
+      </c>
+      <c r="S58" s="3">
         <v>700</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E59" s="3">
         <v>67000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>42700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>53300</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
@@ -3430,11 +3566,11 @@
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3">
         <v>28200</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
@@ -3442,191 +3578,203 @@
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U59" s="3">
         <v>14900</v>
       </c>
-      <c r="U59" s="3" t="s">
+      <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>120600</v>
+      </c>
+      <c r="E60" s="3">
         <v>90500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>102800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>95600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>82400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>56100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>65800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>76900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>64100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>68700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>70200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>46200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>39900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>41400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>40600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>33700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>26000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>22800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>474300</v>
+      </c>
+      <c r="E61" s="3">
         <v>412100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>411800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>421500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>421200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>369000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>367900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>367500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>367000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>366600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>373900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>215100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>214600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>212700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>231200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>248600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>248500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>247900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>247200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>101100</v>
+      </c>
+      <c r="E62" s="3">
         <v>74800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>74100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>72800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>76900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>66100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>62400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>62800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>63800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>41300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>40100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>40300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>31700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>23700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>33300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>33200</v>
-      </c>
-      <c r="S62" s="3">
-        <v>33100</v>
       </c>
       <c r="T62" s="3">
         <v>33100</v>
       </c>
       <c r="U62" s="3">
+        <v>33100</v>
+      </c>
+      <c r="V62" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3832,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3894,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,67 +3956,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>730400</v>
+      </c>
+      <c r="E66" s="3">
         <v>577400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>588800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>589900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>580600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>491200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>496200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>507200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>494900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>476600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>484200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>301600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>286200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>277800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>305100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>315500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>307700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>303800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>307300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4044,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4104,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4166,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4061,8 +4228,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,67 +4290,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>92100</v>
+      </c>
+      <c r="E72" s="3">
         <v>79900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>69900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>52600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>50400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>34800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>31500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>16400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-19400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-32900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-55500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-64700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-85000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-91300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-101600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-104600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-108800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4414,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4476,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,67 +4538,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>509300</v>
+      </c>
+      <c r="E76" s="3">
         <v>485100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>471400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>451000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>445100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>431500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>425600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>414400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>395800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>385500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>376300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>208800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>184500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>175300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>154500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>147500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>136400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>132900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>127700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,131 +4662,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44198</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44107</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44016</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43925</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E81" s="3">
         <v>10000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>17300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>15600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>15100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>17000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>13600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>22500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>20300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>10300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,67 +4817,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E83" s="3">
         <v>11200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4939,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5001,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5063,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5125,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,67 +5187,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>10100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>18900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>35600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>26900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>43700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>35800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>24700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>31000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>14400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>17700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>14300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>13200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,67 +5275,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5397,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,67 +5459,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-92400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-362000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5547,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5374,8 +5607,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5669,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5731,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,67 +5793,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>60900</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-10000</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>51800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>305600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2200</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-19900</v>
       </c>
       <c r="Q100" s="3">
         <v>-19900</v>
       </c>
       <c r="R100" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5669,63 +5917,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1000</v>
+        <v>-41300</v>
       </c>
       <c r="E102" s="3">
         <v>1000</v>
       </c>
       <c r="F102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G102" s="3">
         <v>30800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-29700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>15400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>39600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>20500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-31800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>29900</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>11400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>9300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>PGTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,280 +665,292 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44198</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44107</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44016</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43925</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>285500</v>
+      </c>
+      <c r="E8" s="3">
         <v>271100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>221600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>238000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>202800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>220200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>174800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>197800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>198600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>173700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>189900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>199100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>169300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>140300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>134100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>126900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>137400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>112700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>109500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>188500</v>
+      </c>
+      <c r="E9" s="3">
         <v>177100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>142800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>151100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>128300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>139100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>118700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>127800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>125600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>112500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>124100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>126100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>109300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>95500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>91200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>87100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>92800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>81000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>77900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>88700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E10" s="3">
         <v>94000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>78800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>86900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>74500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>81100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>56100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>70000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>73000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>61200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>65800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>73000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>60000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>44800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>42900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>39800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>44600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>31700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>31600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -961,8 +973,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1023,8 +1036,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1085,58 +1101,61 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>1700</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>12300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1500</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>4400</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>3100</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1147,8 +1166,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1209,8 +1231,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1230,132 +1255,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>264200</v>
+      </c>
+      <c r="E17" s="3">
         <v>246900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>202300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>208100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>194200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>193300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>163900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>172400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>169700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>156500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>169800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>170400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>139400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>127200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>117600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>112100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>117500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>103800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>98700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E18" s="3">
         <v>24200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>19300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>29900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>26900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>25400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>28900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>17200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>20100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>28700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>29900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>16500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>14800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>19900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>8900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>10800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1378,132 +1410,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6700</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-6900</v>
       </c>
       <c r="G20" s="3">
         <v>-6900</v>
       </c>
       <c r="H20" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="I20" s="3">
         <v>-7200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-11800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-5200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E21" s="3">
         <v>28200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>23700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>33800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>29700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>13400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>27600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>30800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>19100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>21600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>23300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>31100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>13600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>16400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>14300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>20000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>9800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1564,132 +1603,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E23" s="3">
         <v>16700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>12500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>23000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>19700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>19000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>22200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>13000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>16900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>26300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>11200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>9300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>15300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E24" s="3">
         <v>3900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>2300</v>
       </c>
       <c r="M24" s="3">
         <v>2300</v>
       </c>
       <c r="N24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O24" s="3">
         <v>3300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1750,132 +1798,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E26" s="3">
         <v>12800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>10000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>17300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>15600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>15100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>17000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>10700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>13600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>22500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>10300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E27" s="3">
         <v>12400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>10000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>17300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>15600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>15100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>17000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>10700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>13600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>22500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>10300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,8 +1993,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1968,11 +2028,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-200</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1980,11 +2040,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>12400</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1998,8 +2058,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2060,8 +2123,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2122,132 +2188,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E32" s="3">
         <v>7500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6700</v>
-      </c>
-      <c r="F32" s="3">
-        <v>6900</v>
       </c>
       <c r="G32" s="3">
         <v>6900</v>
       </c>
       <c r="H32" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I32" s="3">
         <v>7200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>11800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>5200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E33" s="3">
         <v>12400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>10000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>17300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>15600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>15100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>17000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>13600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>22500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>20300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>10300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2308,137 +2383,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E35" s="3">
         <v>12400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>10000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>17300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>15600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>15100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>17000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>13600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>22500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>20300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>10300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44198</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44107</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44016</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43925</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2461,8 +2545,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2485,70 +2570,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E41" s="3">
         <v>59000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>99300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>98400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>67600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>97200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>81800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>84500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>44900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>52700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>32200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>63900</v>
-      </c>
-      <c r="P41" s="3">
-        <v>34000</v>
       </c>
       <c r="Q41" s="3">
         <v>34000</v>
       </c>
       <c r="R41" s="3">
+        <v>34000</v>
+      </c>
+      <c r="S41" s="3">
         <v>44700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>50300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>38900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>39200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2609,256 +2698,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>188100</v>
+      </c>
+      <c r="E43" s="3">
         <v>166500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>121600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>123100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>108500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>112700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>78600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>90100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>86300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>85400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>87500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>106600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>86000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>75600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>60300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>55900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>57300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>47400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>41600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>50900</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>78200</v>
+      </c>
+      <c r="E44" s="3">
         <v>72400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>60300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>54700</v>
-      </c>
-      <c r="G44" s="3">
-        <v>51600</v>
       </c>
       <c r="H44" s="3">
         <v>51600</v>
       </c>
       <c r="I44" s="3">
+        <v>51600</v>
+      </c>
+      <c r="J44" s="3">
         <v>43900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>47600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>45700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>48000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>44700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>46500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>35300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>35500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>37800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>39100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>35100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>33900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>30500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E45" s="3">
         <v>28500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>20600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>14600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>11100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>11000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>348900</v>
+      </c>
+      <c r="E46" s="3">
         <v>326300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>301700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>297800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>277100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>249200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>233600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>234100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>230400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>194100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>195600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>197900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>195900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>159800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>144500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>149100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>151300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>131300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>122400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>119900</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2919,132 +3023,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>242500</v>
+      </c>
+      <c r="E48" s="3">
         <v>225900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>173700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>171600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>169400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>171800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>154600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>149300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>148500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>149800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>115700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>113100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>93400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>88200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>84100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>84500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>84400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>84300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>168400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>684900</v>
+      </c>
+      <c r="E49" s="3">
         <v>684200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>586200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>589600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>593400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>603700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>533600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>537500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>541600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>545600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>549600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>548400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>219800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>221400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>223100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>224800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>225800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>227400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>229000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>230600</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3105,8 +3218,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3167,34 +3283,37 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E52" s="3">
         <v>3200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1000</v>
       </c>
       <c r="J52" s="3">
         <v>1000</v>
       </c>
       <c r="K52" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="L52" s="3">
         <v>1200</v>
@@ -3206,31 +3325,34 @@
         <v>1200</v>
       </c>
       <c r="O52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P52" s="3">
         <v>1300</v>
-      </c>
-      <c r="P52" s="3">
-        <v>1400</v>
       </c>
       <c r="Q52" s="3">
         <v>1400</v>
       </c>
       <c r="R52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S52" s="3">
         <v>1300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3291,70 +3413,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1280200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1239700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1062500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1060100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1040900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1025600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>922700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>921800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>921500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>890700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>862200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>860500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>510400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>470800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>453100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>459600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>462900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>444100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>436600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>434900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3377,8 +3505,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3401,90 +3530,94 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>125900</v>
+      </c>
+      <c r="E57" s="3">
         <v>111900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>23500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>96100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>89500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>72100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>13400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>58800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>67500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>54300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>69900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>45900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>39600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>40300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>33000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>26000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -3493,16 +3626,16 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
       </c>
       <c r="O58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
@@ -3514,54 +3647,57 @@
         <v>300</v>
       </c>
       <c r="S58" s="3">
+        <v>300</v>
+      </c>
+      <c r="T58" s="3">
         <v>700</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E59" s="3">
         <v>8700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>67000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>42700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>53300</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>8</v>
@@ -3569,11 +3705,11 @@
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="3">
         <v>28200</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
@@ -3581,200 +3717,212 @@
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V59" s="3">
         <v>14900</v>
       </c>
-      <c r="V59" s="3" t="s">
+      <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>136200</v>
+      </c>
+      <c r="E60" s="3">
         <v>120600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>90500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>102800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>95600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>82400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>56100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>65800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>76900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>64100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>68700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>70200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>46200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>39900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>41400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>40600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>33700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>26000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>22800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>474500</v>
+      </c>
+      <c r="E61" s="3">
         <v>474300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>412100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>411800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>421500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>421200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>369000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>367900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>367500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>367000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>366600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>373900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>215100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>214600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>212700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>231200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>248600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>248500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>247900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>247200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>114900</v>
+      </c>
+      <c r="E62" s="3">
         <v>101100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>74800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>74100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>72800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>76900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>66100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>62400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>62800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>63800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>41300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>40100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>40300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>31700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>23700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>33300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>33200</v>
-      </c>
-      <c r="T62" s="3">
-        <v>33100</v>
       </c>
       <c r="U62" s="3">
         <v>33100</v>
       </c>
       <c r="V62" s="3">
+        <v>33100</v>
+      </c>
+      <c r="W62" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3835,8 +3983,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3897,8 +4048,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3959,70 +4113,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>758600</v>
+      </c>
+      <c r="E66" s="3">
         <v>730400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>577400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>588800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>589900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>580600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>491200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>496200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>507200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>494900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>476600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>484200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>301600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>286200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>277800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>305100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>315500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>307700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>303800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>307300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4045,8 +4205,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4107,8 +4268,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4169,8 +4333,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4231,8 +4398,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4293,70 +4463,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>98700</v>
+      </c>
+      <c r="E72" s="3">
         <v>92100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>79900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>69900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>52600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>50400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>34800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>31500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-32900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-55500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-64700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-85000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-91300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-101600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-104600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-108800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4417,8 +4593,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4479,8 +4658,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4541,70 +4723,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>521600</v>
+      </c>
+      <c r="E76" s="3">
         <v>509300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>485100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>471400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>451000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>445100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>431500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>425600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>414400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>395800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>385500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>376300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>208800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>184500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>175300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>154500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>147500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>136400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>132900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>127700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4665,137 +4853,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44198</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44107</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44016</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43925</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E81" s="3">
         <v>12400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>10000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>17300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>15600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>15100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>17000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>13600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>22500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>20300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>10300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4818,70 +5015,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E83" s="3">
         <v>11400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>6400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4942,8 +5143,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5004,8 +5208,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5066,8 +5273,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5128,8 +5338,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5190,70 +5403,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>18900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>35600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>26900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>43700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>35800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>24700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>31000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>14400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>17700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>14300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>13200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5276,70 +5495,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5400,8 +5623,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5462,70 +5688,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-92400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-362000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5548,8 +5780,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5610,8 +5843,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5672,8 +5908,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5734,8 +5973,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5796,70 +6038,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>60900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-10000</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>51800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>305600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2200</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-19900</v>
       </c>
       <c r="R100" s="3">
         <v>-19900</v>
       </c>
       <c r="S100" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5920,66 +6168,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-41300</v>
-      </c>
-      <c r="E102" s="3">
-        <v>1000</v>
       </c>
       <c r="F102" s="3">
         <v>1000</v>
       </c>
       <c r="G102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H102" s="3">
         <v>30800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-29700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>15400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>39600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>20500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-31800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>29900</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-10700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>11400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>9300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>PGTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,292 +665,304 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44198</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44107</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44016</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43925</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300400</v>
+      </c>
+      <c r="E8" s="3">
         <v>285500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>271100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>221600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>238000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>202800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>220200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>174800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>197800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>198600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>173700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>189900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>199100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>169300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>140300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>134100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>126900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>137400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>112700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>109500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>196200</v>
+      </c>
+      <c r="E9" s="3">
         <v>188500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>177100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>142800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>151100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>128300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>139100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>118700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>127800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>125600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>112500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>124100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>126100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>109300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>95500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>91200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>87100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>92800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>81000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>77900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>88700</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>104200</v>
+      </c>
+      <c r="E10" s="3">
         <v>97000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>94000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>78800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>86900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>74500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>81100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>56100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>70000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>73000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>61200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>65800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>73000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>60000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>44800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>42900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>39800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>44600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>31700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>31600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -974,8 +986,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1039,8 +1052,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1104,61 +1120,64 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>12300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1500</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>4400</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>3100</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1169,8 +1188,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1234,8 +1256,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1256,138 +1281,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300300</v>
+      </c>
+      <c r="E17" s="3">
         <v>264200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>246900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>202300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>208100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>194200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>193300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>163900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>172400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>169700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>156500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>169800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>170400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>139400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>127200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>117600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>112100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>117500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>103800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>98700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>21300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>24200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>19300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>29900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>26900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>25400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>28900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>17200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>20100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>28700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>29900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>16500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>14800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>19900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>8900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>10800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1411,138 +1443,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-7500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-6900</v>
       </c>
       <c r="H20" s="3">
         <v>-6900</v>
       </c>
       <c r="I20" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="J20" s="3">
         <v>-7200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-11800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-5500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-5200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E21" s="3">
         <v>26200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>28200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>23700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>33800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>12700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>29700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>13400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>27600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>30800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>19100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>21600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>23300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>31100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>13600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>16400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>14300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>20000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>8600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>9800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1606,138 +1645,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E23" s="3">
         <v>13400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>16700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>12500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>23000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>19700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>19000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>22200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>10500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>13000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>16900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>26300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>11200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>9300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>15300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E24" s="3">
         <v>2700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>2300</v>
       </c>
       <c r="N24" s="3">
         <v>2300</v>
       </c>
       <c r="O24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P24" s="3">
         <v>3300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1801,138 +1849,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E26" s="3">
         <v>10700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>17300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>15600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>10700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>13600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>22500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>10300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E27" s="3">
         <v>6600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>12400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>17300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>15600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>17000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>10700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>13600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>22500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>10300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1996,8 +2053,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2031,11 +2091,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-200</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2043,11 +2103,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>12400</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2061,8 +2121,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2126,8 +2189,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2191,138 +2257,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E32" s="3">
         <v>7800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6900</v>
       </c>
       <c r="H32" s="3">
         <v>6900</v>
       </c>
       <c r="I32" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J32" s="3">
         <v>7200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>11800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>5500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>5200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E33" s="3">
         <v>6600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>12400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>17300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>15600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>17000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>13600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>22500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>20300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>10300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2386,143 +2461,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E35" s="3">
         <v>6600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>12400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>17300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>15600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>17000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>13600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>22500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>20300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>10300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44198</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44107</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44016</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43925</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2546,8 +2630,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2571,73 +2656,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>114700</v>
+      </c>
+      <c r="E41" s="3">
         <v>47600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>59000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>99300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>98400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>67600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>97200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>81800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>84500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>44900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>52700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>32200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>63900</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>34000</v>
       </c>
       <c r="R41" s="3">
         <v>34000</v>
       </c>
       <c r="S41" s="3">
+        <v>34000</v>
+      </c>
+      <c r="T41" s="3">
         <v>44700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>50300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>38900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>39200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2701,268 +2790,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>196700</v>
+      </c>
+      <c r="E43" s="3">
         <v>188100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>166500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>121600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>123100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>108500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>112700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>78600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>90100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>86300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>85400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>87500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>106600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>86000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>75600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>60300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>55900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>57300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>47400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>41600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>50900</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>79200</v>
+      </c>
+      <c r="E44" s="3">
         <v>78200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>72400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>60300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>54700</v>
-      </c>
-      <c r="H44" s="3">
-        <v>51600</v>
       </c>
       <c r="I44" s="3">
         <v>51600</v>
       </c>
       <c r="J44" s="3">
+        <v>51600</v>
+      </c>
+      <c r="K44" s="3">
         <v>43900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>47600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>45700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>48000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>44700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>46500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>35300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>35500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>37800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>39100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>35100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>33900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>30500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E45" s="3">
         <v>34900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>28500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>14600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>8700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>11100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>11000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>431600</v>
+      </c>
+      <c r="E46" s="3">
         <v>348900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>326300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>301700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>297800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>277100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>249200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>233600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>234100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>230400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>194100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>195600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>197900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>195900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>159800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>144500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>149100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>151300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>131300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>122400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>119900</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3026,138 +3130,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>239400</v>
+      </c>
+      <c r="E48" s="3">
         <v>242500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>225900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>173700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>171600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>169400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>171800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>154600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>149300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>148500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>149800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>115700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>113100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>93400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>88200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>84100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>84500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>84400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>84300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>168400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>681500</v>
+      </c>
+      <c r="E49" s="3">
         <v>684900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>684200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>586200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>589600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>593400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>603700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>533600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>537500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>541600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>545600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>549600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>548400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>219800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>221400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>223100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>224800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>225800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>227400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>229000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>230600</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3221,8 +3334,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3286,37 +3402,40 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E52" s="3">
         <v>3900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>900</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1000</v>
       </c>
       <c r="K52" s="3">
         <v>1000</v>
       </c>
       <c r="L52" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="M52" s="3">
         <v>1200</v>
@@ -3328,31 +3447,34 @@
         <v>1200</v>
       </c>
       <c r="P52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>1400</v>
       </c>
       <c r="R52" s="3">
         <v>1400</v>
       </c>
       <c r="S52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T52" s="3">
         <v>1300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3416,73 +3538,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1356300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1280200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1239700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1062500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1060100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1040900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1025600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>922700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>921800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>921500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>890700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>862200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>860500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>510400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>470800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>453100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>459600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>462900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>444100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>436600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>434900</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3506,8 +3634,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3531,73 +3660,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>125900</v>
+        <v>81800</v>
       </c>
       <c r="E57" s="3">
-        <v>111900</v>
+        <v>91100</v>
       </c>
       <c r="F57" s="3">
+        <v>84100</v>
+      </c>
+      <c r="G57" s="3">
         <v>23500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>96100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>89500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>72100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>13400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>58800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>67500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>54300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>15300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>69900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>45900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>39600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>40300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>33000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>26000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3629,16 +3762,16 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>200</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
       </c>
       <c r="P58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q58" s="3">
         <v>300</v>
@@ -3650,57 +3783,60 @@
         <v>300</v>
       </c>
       <c r="T58" s="3">
+        <v>300</v>
+      </c>
+      <c r="U58" s="3">
         <v>700</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>45100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>36500</v>
+      </c>
+      <c r="G59" s="3">
+        <v>67000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I59" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J59" s="3">
         <v>10300</v>
       </c>
-      <c r="E59" s="3">
-        <v>8700</v>
-      </c>
-      <c r="F59" s="3">
-        <v>67000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>6700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>6100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>10300</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>42700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>53300</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
@@ -3708,11 +3844,11 @@
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3">
         <v>28200</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>8</v>
@@ -3720,209 +3856,221 @@
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W59" s="3">
         <v>14900</v>
       </c>
-      <c r="W59" s="3" t="s">
+      <c r="X59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>127500</v>
+      </c>
+      <c r="E60" s="3">
         <v>136200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>120600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>90500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>102800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>95600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>82400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>56100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>65800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>76900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>64100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>68700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>70200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>46200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>39900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>41400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>40600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>33700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>26000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>22800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>565700</v>
+      </c>
+      <c r="E61" s="3">
         <v>474500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>474300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>412100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>411800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>421500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>421200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>369000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>367900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>367500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>367000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>366600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>373900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>215100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>214600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>212700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>231200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>248600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>248500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>247900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>247200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>111600</v>
+      </c>
+      <c r="E62" s="3">
         <v>114900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>101100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>74800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>74100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>72800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>76900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>66100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>62400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>62800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>63800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>41300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>40100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>40300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>31700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>23700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>33300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>33200</v>
-      </c>
-      <c r="U62" s="3">
-        <v>33100</v>
       </c>
       <c r="V62" s="3">
         <v>33100</v>
       </c>
       <c r="W62" s="3">
+        <v>33100</v>
+      </c>
+      <c r="X62" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3986,8 +4134,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4051,8 +4202,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4116,73 +4270,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>839400</v>
+      </c>
+      <c r="E66" s="3">
         <v>758600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>730400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>577400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>588800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>589900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>580600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>491200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>496200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>507200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>494900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>476600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>484200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>301600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>286200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>277800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>305100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>315500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>307700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>303800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>307300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4206,8 +4366,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4271,8 +4432,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4336,8 +4500,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4401,8 +4568,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4466,73 +4636,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>91900</v>
+      </c>
+      <c r="E72" s="3">
         <v>98700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>92100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>79900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>69900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>52600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>50400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>34800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>31500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-19400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-32900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-55500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-64700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-85000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-91300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-101600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-104600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-108800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4596,8 +4772,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4661,8 +4840,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4726,73 +4908,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>516800</v>
+      </c>
+      <c r="E76" s="3">
         <v>521600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>509300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>485100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>471400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>451000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>445100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>431500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>425600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>414400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>395800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>385500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>376300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>208800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>184500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>175300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>154500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>147500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>136400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>132900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>127700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4856,143 +5044,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44198</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44107</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44016</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43925</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E81" s="3">
         <v>6600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>12400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>17300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>15600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>17000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>13600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>22500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>20300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>10300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5016,73 +5213,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E83" s="3">
         <v>12800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>11200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>10900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>6400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5146,8 +5347,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5211,8 +5415,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5276,8 +5483,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5341,8 +5551,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5406,73 +5619,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E89" s="3">
         <v>9900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>18900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>35600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>26900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>43700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>35800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>24700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>31000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>14400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>17700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>14300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>13200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5496,8 +5715,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5505,64 +5725,67 @@
         <v>-9600</v>
       </c>
       <c r="E91" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-6500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5626,8 +5849,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5691,73 +5917,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-21600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-92400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-362000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5781,8 +6013,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5846,8 +6079,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5911,8 +6147,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5976,8 +6215,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6041,73 +6283,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>60900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-10000</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>51800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>305600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2200</v>
-      </c>
-      <c r="R100" s="3">
-        <v>-19900</v>
       </c>
       <c r="S100" s="3">
         <v>-19900</v>
       </c>
       <c r="T100" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6171,69 +6419,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>67100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-41300</v>
-      </c>
-      <c r="F102" s="3">
-        <v>1000</v>
       </c>
       <c r="G102" s="3">
         <v>1000</v>
       </c>
       <c r="H102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I102" s="3">
         <v>30800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-29700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>15400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>39600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>20500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-31800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>29900</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-10700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>11400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>9300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>PGTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,304 +665,316 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44198</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44107</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44016</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43925</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>304400</v>
+      </c>
+      <c r="E8" s="3">
         <v>300400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>285500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>271100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>221600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>238000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>202800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>220200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>174800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>197800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>198600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>173700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>189900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>199100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>169300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>140300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>134100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>126900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>137400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>112700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>109500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>196100</v>
+      </c>
+      <c r="E9" s="3">
         <v>196200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>188500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>177100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>142800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>151100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>128300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>139100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>118700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>127800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>125600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>112500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>124100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>126100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>109300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>95500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>91200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>87100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>92800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>81000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>77900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>88700</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>108300</v>
+      </c>
+      <c r="E10" s="3">
         <v>104200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>97000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>94000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>78800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>86900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>74500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>81100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>56100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>70000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>73000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>61200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>65800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>73000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>60000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>44800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>42900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>39800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>44600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>31700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>31600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -987,8 +999,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1055,8 +1068,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1123,64 +1139,67 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>26500</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>12300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1500</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>4400</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>3100</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1191,8 +1210,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1259,8 +1281,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1282,144 +1307,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>275100</v>
+      </c>
+      <c r="E17" s="3">
         <v>300300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>264200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>246900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>202300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>208100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>194200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>193300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>163900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>172400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>169700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>156500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>169800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>170400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>139400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>127200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>117600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>112100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>117500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>103800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>98700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>21300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>24200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>19300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>29900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>26900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>25400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>28900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>17200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>20100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>28700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>29900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>13100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>16500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>14800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>19900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>8900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>10800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1444,144 +1476,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-7800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-6900</v>
       </c>
       <c r="I20" s="3">
         <v>-6900</v>
       </c>
       <c r="J20" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-7200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-5300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-5500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-5200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E21" s="3">
         <v>5700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>26200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>28200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>23700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>33800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>12700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>29700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>27600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>30800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>19100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>21600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>23300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>31100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>13600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>16400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>14300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>20000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>8600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>9800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1648,144 +1687,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>13400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>16700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>12500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>23000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>19700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>19000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>22200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>10500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>13000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>16900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>26300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>9000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>11200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>9300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>15300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>2300</v>
       </c>
       <c r="O24" s="3">
         <v>2300</v>
       </c>
       <c r="P24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q24" s="3">
         <v>3300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1852,144 +1900,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>10700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>17300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>15600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>10700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>13600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>22500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>10300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>12400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>17300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>15600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>17000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>13600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>22500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>10300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2056,8 +2113,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2094,11 +2154,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-200</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2106,11 +2166,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>12400</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2124,8 +2184,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2192,8 +2255,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2260,144 +2326,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E32" s="3">
         <v>7700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>6900</v>
       </c>
       <c r="I32" s="3">
         <v>6900</v>
       </c>
       <c r="J32" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K32" s="3">
         <v>7200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>11800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>5300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>5500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>5200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>17300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>15600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>17000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>13600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>22500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>20300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>10300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2464,149 +2539,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>17300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>15600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>17000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>13600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>22500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>20300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>10300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44198</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44107</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44016</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43925</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2631,8 +2715,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2657,76 +2742,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>96100</v>
+      </c>
+      <c r="E41" s="3">
         <v>114700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>47600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>59000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>99300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>98400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>67600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>97200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>81800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>84500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>44900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>52700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>32200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>63900</v>
-      </c>
-      <c r="R41" s="3">
-        <v>34000</v>
       </c>
       <c r="S41" s="3">
         <v>34000</v>
       </c>
       <c r="T41" s="3">
+        <v>34000</v>
+      </c>
+      <c r="U41" s="3">
         <v>44700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>50300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>38900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>39200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2793,280 +2882,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>196500</v>
+      </c>
+      <c r="E43" s="3">
         <v>196700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>188100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>166500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>121600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>123100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>108500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>112700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>78600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>90100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>86300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>85400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>87500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>106600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>86000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>75600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>60300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>55900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>57300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>47400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>41600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>50900</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>91400</v>
+      </c>
+      <c r="E44" s="3">
         <v>79200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>78200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>72400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>60300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>54700</v>
-      </c>
-      <c r="I44" s="3">
-        <v>51600</v>
       </c>
       <c r="J44" s="3">
         <v>51600</v>
       </c>
       <c r="K44" s="3">
+        <v>51600</v>
+      </c>
+      <c r="L44" s="3">
         <v>43900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>47600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>45700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>48000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>44700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>46500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>35300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>35500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>37800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>39100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>35100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>33900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>30500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E45" s="3">
         <v>40900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>34900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>28500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>14600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>12400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>8700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>11100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>11000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>421800</v>
+      </c>
+      <c r="E46" s="3">
         <v>431600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>348900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>326300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>301700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>297800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>277100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>249200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>233600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>234100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>230400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>194100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>195600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>197900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>195900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>159800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>144500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>149100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>151300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>131300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>122400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>119900</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3133,144 +3237,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>276400</v>
+      </c>
+      <c r="E48" s="3">
         <v>239400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>242500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>225900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>173700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>171600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>169400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>171800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>154600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>149300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>148500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>149800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>115700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>113100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>93400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>88200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>84100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>84500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>84400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>84300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>168400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>759100</v>
+      </c>
+      <c r="E49" s="3">
         <v>681500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>684900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>684200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>586200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>589600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>593400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>603700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>533600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>537500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>541600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>545600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>549600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>548400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>219800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>221400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>223100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>224800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>225800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>227400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>229000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>230600</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3337,8 +3450,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3405,40 +3521,43 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E52" s="3">
         <v>3700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>900</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1000</v>
       </c>
       <c r="L52" s="3">
         <v>1000</v>
       </c>
       <c r="M52" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="N52" s="3">
         <v>1200</v>
@@ -3450,31 +3569,34 @@
         <v>1200</v>
       </c>
       <c r="Q52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R52" s="3">
         <v>1300</v>
-      </c>
-      <c r="R52" s="3">
-        <v>1400</v>
       </c>
       <c r="S52" s="3">
         <v>1400</v>
       </c>
       <c r="T52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U52" s="3">
         <v>1300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3541,76 +3663,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1460600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1356300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1280200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1239700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1062500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1060100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1040900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1025600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>922700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>921800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>921500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>890700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>862200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>860500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>510400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>470800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>453100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>459600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>462900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>444100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>436600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>434900</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3635,8 +3763,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3661,76 +3790,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E57" s="3">
         <v>81800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>91100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>84100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>23500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>96100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>89500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>72100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>13400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>58800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>67500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>54300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>15300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>69900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>45900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>39600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>40300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>33000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>26000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>7900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3765,16 +3898,16 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>200</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
       </c>
       <c r="Q58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R58" s="3">
         <v>300</v>
@@ -3786,60 +3919,63 @@
         <v>300</v>
       </c>
       <c r="U58" s="3">
+        <v>300</v>
+      </c>
+      <c r="V58" s="3">
         <v>700</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>95800</v>
+      </c>
+      <c r="E59" s="3">
         <v>45600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>45100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>36500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>67000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>42700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>53300</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
@@ -3847,11 +3983,11 @@
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T59" s="3">
         <v>28200</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>8</v>
@@ -3859,218 +3995,230 @@
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X59" s="3">
         <v>14900</v>
       </c>
-      <c r="X59" s="3" t="s">
+      <c r="Y59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>135900</v>
+      </c>
+      <c r="E60" s="3">
         <v>127500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>136200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>120600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>90500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>102800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>95600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>82400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>56100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>65800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>76900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>64100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>68700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>70200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>46200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>39900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>41400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>40600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>33700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>26000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>22800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>625700</v>
+      </c>
+      <c r="E61" s="3">
         <v>565700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>474500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>474300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>412100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>411800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>421500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>421200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>369000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>367900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>367500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>367000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>366600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>373900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>215100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>214600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>212700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>231200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>248600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>248500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>247900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>247200</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>133100</v>
+      </c>
+      <c r="E62" s="3">
         <v>111600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>114900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>101100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>74800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>74100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>72800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>76900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>66100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>62400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>62800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>63800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>41300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>40100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>40300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>31700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>23700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>33300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>33200</v>
-      </c>
-      <c r="V62" s="3">
-        <v>33100</v>
       </c>
       <c r="W62" s="3">
         <v>33100</v>
       </c>
       <c r="X62" s="3">
+        <v>33100</v>
+      </c>
+      <c r="Y62" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4137,8 +4285,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4205,8 +4356,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4273,76 +4427,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>931500</v>
+      </c>
+      <c r="E66" s="3">
         <v>839400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>758600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>730400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>577400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>588800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>589900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>580600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>491200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>496200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>507200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>494900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>476600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>484200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>301600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>286200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>277800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>305100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>315500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>307700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>303800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>307300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4367,8 +4527,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4435,8 +4596,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4503,8 +4667,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4571,8 +4738,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4639,76 +4809,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>106400</v>
+      </c>
+      <c r="E72" s="3">
         <v>91900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>98700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>92100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>79900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>69900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>52600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>50400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>34800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>31500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>16400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-32900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-55500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-64700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-85000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-91300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-101600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-104600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-108800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4775,8 +4951,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4843,8 +5022,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4911,76 +5093,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>529100</v>
+      </c>
+      <c r="E76" s="3">
         <v>516800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>521600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>509300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>485100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>471400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>451000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>445100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>431500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>425600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>414400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>395800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>385500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>376300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>208800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>184500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>175300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>154500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>147500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>136400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>132900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>127700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5047,149 +5235,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44198</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44107</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44016</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43925</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>17300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>15600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>17000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>13600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>22500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>20300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>10300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5214,76 +5411,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E83" s="3">
         <v>13200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>11400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>11200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>10800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>10900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5350,8 +5551,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5418,8 +5622,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5486,8 +5693,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5554,8 +5764,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5622,76 +5835,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E89" s="3">
         <v>11300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>18900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>35600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>10900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>26900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>43700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>35800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>24700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>31000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>14400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>17700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>14300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>13200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5716,76 +5935,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9600</v>
+        <v>-7800</v>
       </c>
       <c r="E91" s="3">
         <v>-9600</v>
       </c>
       <c r="F91" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="G91" s="3">
         <v>-6500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5852,8 +6075,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5920,76 +6146,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-21600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-92400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-362000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6014,8 +6246,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6082,8 +6315,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6150,8 +6386,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6218,8 +6457,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6286,76 +6528,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E100" s="3">
         <v>65300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>60900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-10000</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>51800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>305600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2200</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-19900</v>
       </c>
       <c r="T100" s="3">
         <v>-19900</v>
       </c>
       <c r="U100" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6422,72 +6670,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E102" s="3">
         <v>67100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-11400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-41300</v>
-      </c>
-      <c r="G102" s="3">
-        <v>1000</v>
       </c>
       <c r="H102" s="3">
         <v>1000</v>
       </c>
       <c r="I102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J102" s="3">
         <v>30800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-29700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>15400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>39600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>20500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-31800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>29900</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-10700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>11400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>9300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>PGTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,316 +665,328 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44198</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44107</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44016</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43925</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>358700</v>
+      </c>
+      <c r="E8" s="3">
         <v>304400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>300400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>285500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>271100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>221600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>238000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>202800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>220200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>174800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>197800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>198600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>173700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>189900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>199100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>169300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>140300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>134100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>126900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>137400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>112700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>109500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>224100</v>
+      </c>
+      <c r="E9" s="3">
         <v>196100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>196200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>188500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>177100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>142800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>151100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>128300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>139100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>118700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>127800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>125600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>112500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>124100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>126100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>109300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>95500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>91200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>87100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>92800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>81000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>77900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>88700</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>134600</v>
+      </c>
+      <c r="E10" s="3">
         <v>108300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>104200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>97000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>94000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>78800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>86900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>74500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>81100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>56100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>70000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>73000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>61200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>65800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>73000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>60000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>44800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>42900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>39800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>44600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>31700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>31600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1000,8 +1012,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1071,8 +1084,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1142,67 +1158,70 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>26500</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>12300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1500</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>4400</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>3100</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1213,8 +1232,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1284,8 +1306,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1308,150 +1333,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>275100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>264200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>246900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>202300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>208100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>194200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>193300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>163900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>172400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>169700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>156500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>169800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>170400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>139400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>127200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>117600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>112100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>117500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>103800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>98700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>29300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>21300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>24200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>19300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>29900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>26900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>25400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>28900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>17200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>20100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>28700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>29900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>13100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>16500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>14800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>19900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>8900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>10800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1477,150 +1509,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-7700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-6900</v>
       </c>
       <c r="J20" s="3">
         <v>-6900</v>
       </c>
       <c r="K20" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="L20" s="3">
         <v>-7200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-11800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-5300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-5500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-4900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>36400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>26200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>28200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>23700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>33800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>12700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>29700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>27600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>30800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>19100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>21600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>23300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>31100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>13600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>16400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>14300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>20000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>8600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>9800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1690,150 +1729,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E23" s="3">
         <v>22300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>13400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>16700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>12500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>23000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>19700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>19000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>22200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>10500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>13000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>16900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>26300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>9000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>11200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>9300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>15300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E24" s="3">
         <v>5500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5100</v>
-      </c>
-      <c r="O24" s="3">
-        <v>2300</v>
       </c>
       <c r="P24" s="3">
         <v>2300</v>
       </c>
       <c r="Q24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R24" s="3">
         <v>3300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1903,150 +1951,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>16800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>17300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>15100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>10700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>13600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>22500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>6300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>10300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>14600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>10000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>17300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>15100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>17000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>10700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>13600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>22500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>10300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2116,31 +2173,34 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2157,11 +2217,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2169,11 +2229,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>12400</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2187,8 +2247,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2258,8 +2321,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2329,150 +2395,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>7000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>6900</v>
       </c>
       <c r="J32" s="3">
         <v>6900</v>
       </c>
       <c r="K32" s="3">
+        <v>6900</v>
+      </c>
+      <c r="L32" s="3">
         <v>7200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>11800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>5300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>5500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>4900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>5200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>14600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>10000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>17300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>15100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>17000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>10500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>13600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>22500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>20300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>10300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2542,155 +2617,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>14600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>10000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>17300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>15100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>17000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>10500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>13600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>22500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>20300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>10300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44198</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44107</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44016</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43925</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2716,8 +2800,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2743,79 +2828,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>103600</v>
+      </c>
+      <c r="E41" s="3">
         <v>96100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>114700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>47600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>59000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>99300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>98400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>67600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>97200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>81800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>84500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>44900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>52700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>32200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>63900</v>
-      </c>
-      <c r="S41" s="3">
-        <v>34000</v>
       </c>
       <c r="T41" s="3">
         <v>34000</v>
       </c>
       <c r="U41" s="3">
+        <v>34000</v>
+      </c>
+      <c r="V41" s="3">
         <v>44700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>50300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>38900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>39200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2885,292 +2974,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>230400</v>
+      </c>
+      <c r="E43" s="3">
         <v>196500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>196700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>188100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>166500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>121600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>123100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>108500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>112700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>78600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>90100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>86300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>85400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>87500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>106600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>86000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>75600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>60300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>55900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>57300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>47400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>41600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>50900</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>97400</v>
+      </c>
+      <c r="E44" s="3">
         <v>91400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>79200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>78200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>72400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>60300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>54700</v>
-      </c>
-      <c r="J44" s="3">
-        <v>51600</v>
       </c>
       <c r="K44" s="3">
         <v>51600</v>
       </c>
       <c r="L44" s="3">
+        <v>51600</v>
+      </c>
+      <c r="M44" s="3">
         <v>43900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>47600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>45700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>48000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>44700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>46500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>35300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>35500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>37800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>39100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>35100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>33900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>30500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E45" s="3">
         <v>37700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>40900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>34900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>28500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>20600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>18700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>15800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>14600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>12400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>9300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>8700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>11100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>11000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>471100</v>
+      </c>
+      <c r="E46" s="3">
         <v>421800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>431600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>348900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>326300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>301700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>297800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>277100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>249200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>233600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>234100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>230400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>194100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>195600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>197900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>195900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>159800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>144500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>149100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>151300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>131300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>122400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>119900</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3240,150 +3344,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>274800</v>
+      </c>
+      <c r="E48" s="3">
         <v>276400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>239400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>242500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>225900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>173700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>171600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>169400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>171800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>154600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>149300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>148500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>149800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>115700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>113100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>93400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>88200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>84100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>84500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>84400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>84300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>168400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>751000</v>
+      </c>
+      <c r="E49" s="3">
         <v>759100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>681500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>684900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>684200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>586200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>589600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>593400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>603700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>533600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>537500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>541600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>545600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>549600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>548400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>219800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>221400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>223100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>224800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>225800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>227400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>229000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>230600</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3453,8 +3566,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3524,43 +3640,46 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E52" s="3">
         <v>3300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>900</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1000</v>
       </c>
       <c r="M52" s="3">
         <v>1000</v>
       </c>
       <c r="N52" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="O52" s="3">
         <v>1200</v>
@@ -3572,31 +3691,34 @@
         <v>1200</v>
       </c>
       <c r="R52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S52" s="3">
         <v>1300</v>
-      </c>
-      <c r="S52" s="3">
-        <v>1400</v>
       </c>
       <c r="T52" s="3">
         <v>1400</v>
       </c>
       <c r="U52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V52" s="3">
         <v>1300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3666,79 +3788,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1499100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1460600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1356300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1280200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1239700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1062500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1060100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1040900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1025600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>922700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>921800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>921500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>890700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>862200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>860500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>510400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>470800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>453100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>459600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>462900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>444100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>436600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>434900</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3764,8 +3892,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3791,79 +3920,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>137400</v>
+      </c>
+      <c r="E57" s="3">
         <v>40000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>81800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>91100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>84100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>23500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>96100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>89500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>72100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>58800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>67500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>54300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>15300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>69900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>45900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>39600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>40300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>33000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>26000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>7900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3901,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>100</v>
-      </c>
-      <c r="P58" s="3">
-        <v>200</v>
       </c>
       <c r="Q58" s="3">
         <v>200</v>
       </c>
       <c r="R58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S58" s="3">
         <v>300</v>
@@ -3922,63 +4055,66 @@
         <v>300</v>
       </c>
       <c r="V58" s="3">
+        <v>300</v>
+      </c>
+      <c r="W58" s="3">
         <v>700</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
       <c r="X58" s="3">
         <v>0</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E59" s="3">
         <v>95800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>45600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>45100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>36500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>67000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>42700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>53300</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
@@ -3986,11 +4122,11 @@
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U59" s="3">
         <v>28200</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>8</v>
@@ -3998,227 +4134,239 @@
       <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y59" s="3">
         <v>14900</v>
       </c>
-      <c r="Y59" s="3" t="s">
+      <c r="Z59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>151100</v>
+      </c>
+      <c r="E60" s="3">
         <v>135900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>127500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>136200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>120600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>90500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>102800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>95600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>82400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>56100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>65800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>76900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>64100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>68700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>70200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>46200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>39900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>41400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>40600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>33700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>26000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>22800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>626000</v>
+      </c>
+      <c r="E61" s="3">
         <v>625700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>565700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>474500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>474300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>412100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>411800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>421500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>421200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>369000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>367900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>367500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>367000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>366600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>373900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>215100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>214600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>212700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>231200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>248600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>248500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>247900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>247200</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>128800</v>
+      </c>
+      <c r="E62" s="3">
         <v>133100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>111600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>114900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>101100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>74800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>74100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>72800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>76900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>66100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>62400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>62800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>63800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>41300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>40100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>40300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>31700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>23700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>33300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>33200</v>
-      </c>
-      <c r="W62" s="3">
-        <v>33100</v>
       </c>
       <c r="X62" s="3">
         <v>33100</v>
       </c>
       <c r="Y62" s="3">
+        <v>33100</v>
+      </c>
+      <c r="Z62" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4288,8 +4436,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4359,8 +4510,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4430,79 +4584,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>945500</v>
+      </c>
+      <c r="E66" s="3">
         <v>931500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>839400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>758600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>730400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>577400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>588800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>589900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>580600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>491200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>496200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>507200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>494900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>476600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>484200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>301600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>286200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>277800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>305100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>315500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>307700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>303800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>307300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4528,8 +4688,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4599,8 +4760,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4670,8 +4834,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4741,8 +4908,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4812,79 +4982,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>127100</v>
+      </c>
+      <c r="E72" s="3">
         <v>106400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>91900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>98700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>92100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>79900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>69900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>52600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>50400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>34800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>31500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>16400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-19400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-32900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-55500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-64700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-85000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-91300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-101600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-104600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-108800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4954,8 +5130,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5025,8 +5204,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5096,79 +5278,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>553700</v>
+      </c>
+      <c r="E76" s="3">
         <v>529100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>516800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>521600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>509300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>485100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>471400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>451000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>445100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>431500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>425600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>414400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>395800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>385500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>376300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>208800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>184500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>175300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>154500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>147500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>136400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>132900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>127700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5238,155 +5426,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44198</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44107</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44016</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43925</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>14600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>10000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>17300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>15100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>17000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>10500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>13600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>22500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>20300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>10300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5412,79 +5609,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E83" s="3">
         <v>14100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>11400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>11200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>10800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>10900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>4200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5554,8 +5755,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5625,8 +5829,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5696,8 +5903,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5767,8 +5977,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5838,79 +6051,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E89" s="3">
         <v>43900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>11300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>18900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>35600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>26900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>43700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>35800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>24700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>31000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>8900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>14400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>17700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>14300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>13200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5936,79 +6155,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7800</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-9600</v>
       </c>
       <c r="F91" s="3">
         <v>-9600</v>
       </c>
       <c r="G91" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="H91" s="3">
         <v>-6500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6078,8 +6301,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6149,79 +6375,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-122000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-21600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-92400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-362000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6247,8 +6479,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6318,8 +6551,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6389,8 +6625,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6460,8 +6699,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6531,79 +6773,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E100" s="3">
         <v>59500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>65300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>60900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-10000</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>51800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>305600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2200</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-19900</v>
       </c>
       <c r="U100" s="3">
         <v>-19900</v>
       </c>
       <c r="V100" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6673,75 +6921,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>67100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-11400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-41300</v>
-      </c>
-      <c r="H102" s="3">
-        <v>1000</v>
       </c>
       <c r="I102" s="3">
         <v>1000</v>
       </c>
       <c r="J102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K102" s="3">
         <v>30800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-29700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>15400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>39600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>20500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-31800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>29900</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-10700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>11400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>9300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>PGTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,328 +665,340 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44198</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44107</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44016</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43925</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>406500</v>
+      </c>
+      <c r="E8" s="3">
         <v>358700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>304400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>285500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>271100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>221600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>238000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>202800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>220200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>174800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>197800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>198600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>173700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>189900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>199100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>169300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>140300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>134100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>126900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>137400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>112700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>109500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>241400</v>
+      </c>
+      <c r="E9" s="3">
         <v>224100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>196100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>196200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>188500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>177100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>142800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>151100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>128300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>139100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>118700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>127800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>125600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>112500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>124100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>126100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>109300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>95500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>91200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>87100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>92800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>81000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>77900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>88700</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>165100</v>
+      </c>
+      <c r="E10" s="3">
         <v>134600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>108300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>104200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>97000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>94000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>78800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>86900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>74500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>81100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>56100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>70000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>73000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>61200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>65800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>73000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>60000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>44800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>42900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>39800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>44600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>31700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>31600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1013,8 +1025,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1161,70 +1177,73 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>26500</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1500</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>4400</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>3100</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1235,8 +1254,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1309,8 +1331,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1334,156 +1359,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>350900</v>
       </c>
       <c r="E17" s="3">
+        <v>320000</v>
+      </c>
+      <c r="F17" s="3">
         <v>275100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>264200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>246900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>202300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>208100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>194200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>193300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>163900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>172400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>169700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>156500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>169800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>170400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>139400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>127200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>117600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>112100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>117500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>103800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>98700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>55600</v>
       </c>
       <c r="E18" s="3">
+        <v>38700</v>
+      </c>
+      <c r="F18" s="3">
         <v>29300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>21300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>24200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>19300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>29900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>26900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>25400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>28900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>17200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>20100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>28700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>29900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>13100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>16500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>14800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>19900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>8900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>10800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1510,156 +1542,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-7100</v>
       </c>
       <c r="E20" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-7000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6700</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-6900</v>
       </c>
       <c r="K20" s="3">
         <v>-6900</v>
       </c>
       <c r="L20" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="M20" s="3">
         <v>-7200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-11800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-5300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-5500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-4600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-5200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>62900</v>
       </c>
       <c r="E21" s="3">
+        <v>48100</v>
+      </c>
+      <c r="F21" s="3">
         <v>36400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>26200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>28200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>23700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>33800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>29700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>13400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>27600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>30800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>19100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>21600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>23300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>31100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>13600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>16400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>14300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>20000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>8600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>9800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1732,156 +1771,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E23" s="3">
         <v>31600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>22300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>13400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>16700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>12500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>23000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>19700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>19000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>22200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>10500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>13000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>16900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>26300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>9000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>11200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>9300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>15300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>5600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E24" s="3">
         <v>7800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5100</v>
-      </c>
-      <c r="P24" s="3">
-        <v>2300</v>
       </c>
       <c r="Q24" s="3">
         <v>2300</v>
       </c>
       <c r="R24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="S24" s="3">
         <v>3300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1954,156 +2002,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>36500</v>
       </c>
       <c r="E26" s="3">
+        <v>23800</v>
+      </c>
+      <c r="F26" s="3">
         <v>16800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>10000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>17300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>15100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>17000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>8300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>10700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>13600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>22500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>6300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>10300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>4100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>36500</v>
       </c>
       <c r="E27" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F27" s="3">
         <v>14600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>10000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>17300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>15100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>17000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>8300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>10700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>13600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>22500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>6300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>10300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>4100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2176,8 +2233,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2202,8 +2262,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2220,11 +2280,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-200</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2232,11 +2292,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>12400</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2250,8 +2310,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2324,8 +2387,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2398,156 +2464,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>7100</v>
       </c>
       <c r="E32" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F32" s="3">
         <v>7000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6700</v>
-      </c>
-      <c r="J32" s="3">
-        <v>6900</v>
       </c>
       <c r="K32" s="3">
         <v>6900</v>
       </c>
       <c r="L32" s="3">
+        <v>6900</v>
+      </c>
+      <c r="M32" s="3">
         <v>7200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>11800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>5300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>5500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>4600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>4900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>5200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>36500</v>
       </c>
       <c r="E33" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F33" s="3">
         <v>14600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>10000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>17300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>15100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>17000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>8300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>10500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>13600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>22500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>20300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>6300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>10300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>4100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2620,161 +2695,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>36500</v>
       </c>
       <c r="E35" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F35" s="3">
         <v>14600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>10000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>17300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>15100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>17000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>8300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>10500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>13600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>22500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>20300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>6300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>10300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>4100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44198</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44107</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44016</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43925</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2801,8 +2885,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2829,82 +2914,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>159300</v>
+      </c>
+      <c r="E41" s="3">
         <v>103600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>96100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>114700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>47600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>59000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>99300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>98400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>67600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>97200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>81800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>84500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>44900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>52700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>32200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>63900</v>
-      </c>
-      <c r="T41" s="3">
-        <v>34000</v>
       </c>
       <c r="U41" s="3">
         <v>34000</v>
       </c>
       <c r="V41" s="3">
+        <v>34000</v>
+      </c>
+      <c r="W41" s="3">
         <v>44700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>50300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>38900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>39200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2977,304 +3066,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>237500</v>
+      </c>
+      <c r="E43" s="3">
         <v>230400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>196500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>196700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>188100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>166500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>121600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>123100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>108500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>112700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>78600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>90100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>86300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>85400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>87500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>106600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>86000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>75600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>60300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>55900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>57300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>47400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>41600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>50900</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>110200</v>
+      </c>
+      <c r="E44" s="3">
         <v>97400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>91400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>79200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>78200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>72400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>60300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>54700</v>
-      </c>
-      <c r="K44" s="3">
-        <v>51600</v>
       </c>
       <c r="L44" s="3">
         <v>51600</v>
       </c>
       <c r="M44" s="3">
+        <v>51600</v>
+      </c>
+      <c r="N44" s="3">
         <v>43900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>47600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>45700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>48000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>44700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>46500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>35300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>35500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>37800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>39100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>35100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>33900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>30500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E45" s="3">
         <v>39800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>37700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>40900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>34900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>20600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>15800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>14600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>12400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>9300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>8700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>11100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>11000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>535800</v>
+      </c>
+      <c r="E46" s="3">
         <v>471100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>421800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>431600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>348900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>326300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>301700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>297800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>277100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>249200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>233600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>234100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>230400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>194100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>195600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>197900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>195900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>159800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>144500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>149100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>151300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>131300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>122400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>119900</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3347,156 +3451,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>281100</v>
+      </c>
+      <c r="E48" s="3">
         <v>274800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>276400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>239400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>242500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>225900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>173700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>171600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>169400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>171800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>154600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>149300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>148500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>149800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>115700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>113100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>93400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>88200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>84100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>84500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>84400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>84300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>168400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>747500</v>
+      </c>
+      <c r="E49" s="3">
         <v>751000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>759100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>681500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>684900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>684200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>586200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>589600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>593400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>603700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>533600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>537500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>541600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>545600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>549600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>548400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>219800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>221400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>223100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>224800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>225800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>227400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>229000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>230600</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3569,8 +3682,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3643,46 +3759,49 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>900</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1000</v>
       </c>
       <c r="N52" s="3">
         <v>1000</v>
       </c>
       <c r="O52" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="P52" s="3">
         <v>1200</v>
@@ -3694,31 +3813,34 @@
         <v>1200</v>
       </c>
       <c r="S52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T52" s="3">
         <v>1300</v>
-      </c>
-      <c r="T52" s="3">
-        <v>1400</v>
       </c>
       <c r="U52" s="3">
         <v>1400</v>
       </c>
       <c r="V52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W52" s="3">
         <v>1300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3791,82 +3913,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1566400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1499100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1460600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1356300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1280200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1239700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1062500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1060100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1040900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1025600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>922700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>921800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>921500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>890700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>862200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>860500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>510400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>470800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>453100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>459600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>462900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>444100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>436600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>434900</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3893,8 +4021,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3921,82 +4050,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>137400</v>
+        <v>138000</v>
       </c>
       <c r="E57" s="3">
+        <v>103100</v>
+      </c>
+      <c r="F57" s="3">
         <v>40000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>81800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>91100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>84100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>23500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>96100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>89500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>72100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>58800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>67500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>54300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>15300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>69900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>45900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>39600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>40300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>33000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>26000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>7900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4037,16 +4170,16 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>200</v>
       </c>
       <c r="R58" s="3">
         <v>200</v>
       </c>
       <c r="S58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T58" s="3">
         <v>300</v>
@@ -4058,66 +4191,69 @@
         <v>300</v>
       </c>
       <c r="W58" s="3">
+        <v>300</v>
+      </c>
+      <c r="X58" s="3">
         <v>700</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
       <c r="Y58" s="3">
         <v>0</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13700</v>
+        <v>52000</v>
       </c>
       <c r="E59" s="3">
+        <v>48000</v>
+      </c>
+      <c r="F59" s="3">
         <v>95800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>45600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>45100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>36500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>67000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>42700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>53300</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
@@ -4125,11 +4261,11 @@
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V59" s="3">
         <v>28200</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>8</v>
@@ -4137,236 +4273,248 @@
       <c r="X59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z59" s="3">
         <v>14900</v>
       </c>
-      <c r="Z59" s="3" t="s">
+      <c r="AA59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E60" s="3">
         <v>151100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>135900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>127500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>136200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>120600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>90500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>102800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>95600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>82400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>56100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>65800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>76900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>64100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>68700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>70200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>46200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>39900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>41400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>40600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>33700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>26000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>22800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>626300</v>
+      </c>
+      <c r="E61" s="3">
         <v>626000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>625700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>565700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>474500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>474300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>412100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>411800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>421500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>421200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>369000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>367900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>367500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>367000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>366600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>373900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>215100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>214600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>212700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>231200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>248600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>248500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>247900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>247200</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>129700</v>
+      </c>
+      <c r="E62" s="3">
         <v>128800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>133100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>111600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>114900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>101100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>74800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>74100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>72800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>76900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>66100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>62400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>62800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>63800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>41300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>40100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>40300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>31700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>23700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>33300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>33200</v>
-      </c>
-      <c r="X62" s="3">
-        <v>33100</v>
       </c>
       <c r="Y62" s="3">
         <v>33100</v>
       </c>
       <c r="Z62" s="3">
+        <v>33100</v>
+      </c>
+      <c r="AA62" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4439,8 +4587,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4513,8 +4664,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4587,82 +4741,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>985600</v>
+      </c>
+      <c r="E66" s="3">
         <v>945500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>931500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>839400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>758600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>730400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>577400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>588800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>589900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>580600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>491200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>496200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>507200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>494900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>476600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>484200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>301600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>286200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>277800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>305100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>315500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>307700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>303800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>307300</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4689,8 +4849,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4763,8 +4924,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4837,8 +5001,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4911,8 +5078,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4985,82 +5155,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>163600</v>
+      </c>
+      <c r="E72" s="3">
         <v>127100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>106400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>91900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>98700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>92100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>79900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>69900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>52600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>50400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>34800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>31500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>16400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-19400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-32900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-55500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-64700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-85000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-91300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-101600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-104600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-108800</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5133,8 +5309,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5207,8 +5386,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5281,82 +5463,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>580800</v>
+      </c>
+      <c r="E76" s="3">
         <v>553700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>529100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>516800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>521600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>509300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>485100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>471400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>451000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>445100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>431500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>425600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>414400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>395800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>385500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>376300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>208800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>184500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>175300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>154500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>147500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>136400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>132900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>127700</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5429,161 +5617,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44198</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44107</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44016</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43925</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>36500</v>
       </c>
       <c r="E81" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F81" s="3">
         <v>14600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>10000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>17300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>15100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>17000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>8300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>10500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>13600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>22500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>20300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>6300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>10300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>4100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5610,82 +5807,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E83" s="3">
         <v>16500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>14100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>11400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>11200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>10800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>6400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>4600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>4200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5758,8 +5959,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5832,8 +6036,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5906,8 +6113,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5980,8 +6190,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6054,82 +6267,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>67600</v>
+      </c>
+      <c r="E89" s="3">
         <v>17300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>43900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>11300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>18900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>35600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>26900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>43700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>35800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>24700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>31000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>8900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>14400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>17700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>14300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>13200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6156,82 +6375,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7800</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-9600</v>
       </c>
       <c r="G91" s="3">
         <v>-9600</v>
       </c>
       <c r="H91" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="I91" s="3">
         <v>-6500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6304,8 +6527,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6378,82 +6604,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-122000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-21600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-92400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-362000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-4400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6480,8 +6712,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6554,8 +6787,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6628,8 +6864,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6702,8 +6941,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6776,82 +7018,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>59500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>65300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>60900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-10000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>51800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>305600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2200</v>
-      </c>
-      <c r="U100" s="3">
-        <v>-19900</v>
       </c>
       <c r="V100" s="3">
         <v>-19900</v>
       </c>
       <c r="W100" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6924,78 +7172,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E102" s="3">
         <v>7500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>67100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-11400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-41300</v>
-      </c>
-      <c r="I102" s="3">
-        <v>1000</v>
       </c>
       <c r="J102" s="3">
         <v>1000</v>
       </c>
       <c r="K102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L102" s="3">
         <v>30800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-29700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>15400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>39600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>20500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-31800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>29900</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-10700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-5600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>11400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>9300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>PGTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,340 +665,352 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44198</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44107</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44016</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43925</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>385800</v>
+      </c>
+      <c r="E8" s="3">
         <v>406500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>358700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>304400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>285500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>271100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>221600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>238000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>202800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>220200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>174800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>197800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>198600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>173700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>189900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>199100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>169300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>140300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>134100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>126900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>137400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>112700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>109500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E9" s="3">
         <v>241400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>224100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>196100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>196200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>188500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>177100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>142800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>151100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>128300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>139100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>118700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>127800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>125600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>112500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>124100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>126100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>109300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>95500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>91200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>87100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>92800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>81000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>77900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>88700</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>149800</v>
+      </c>
+      <c r="E10" s="3">
         <v>165100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>134600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>108300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>104200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>97000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>94000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>78800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>86900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>74500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>81100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>56100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>70000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>73000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>61200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>65800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>73000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>60000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>44800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>42900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>39800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>44600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>31700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>31600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1026,8 +1038,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1103,8 +1116,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1180,73 +1196,76 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>26500</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1500</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>4400</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>300</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>3100</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1257,8 +1276,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1334,8 +1356,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1360,162 +1385,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>350900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>320000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>275100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>264200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>246900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>202300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>208100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>194200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>193300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>163900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>172400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>169700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>156500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>169800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>170400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>139400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>127200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>117600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>112100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>117500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>103800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>98700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>55600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>38700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>29300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>21300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>24200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>19300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>29900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>26900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>25400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>28900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>17200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>20100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>28700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>29900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>13100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>16500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>14800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>19900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>8900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>10800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1543,162 +1575,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-7100</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>-7100</v>
       </c>
       <c r="F20" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-7000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6700</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-6900</v>
       </c>
       <c r="L20" s="3">
         <v>-6900</v>
       </c>
       <c r="M20" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="N20" s="3">
         <v>-7200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-11800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-5300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-5500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-4900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-5200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>62900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>48100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>36400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>26200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>28200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>23700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>33800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>29700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>13400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>27600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>30800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>19100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>21600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>23300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>31100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>13600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>16400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>14300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>20000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>8600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>9800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1774,162 +1813,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E23" s="3">
         <v>48500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>31600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>22300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>13400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>16700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>12500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>23000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>19700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>19000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>22200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>10500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>13000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>16900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>26300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>9000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>11200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>9300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>15300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>4000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>5600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E24" s="3">
         <v>12000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5100</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>2300</v>
       </c>
       <c r="R24" s="3">
         <v>2300</v>
       </c>
       <c r="S24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="T24" s="3">
         <v>3300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>5100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2005,162 +2053,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>36500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>23800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>10000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>17300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>15600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>17000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>8300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>10700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>13600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>22500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>6300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>10300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>4100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>36500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>21000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>14600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>10000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>17300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>15600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>17000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>8300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>13600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>22500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>7900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>6300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>10300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>4100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2236,8 +2293,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2265,8 +2325,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2283,11 +2343,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-200</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2295,11 +2355,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>12400</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2313,8 +2373,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2390,8 +2453,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2467,162 +2533,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>7100</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>7100</v>
       </c>
       <c r="F32" s="3">
+        <v>7100</v>
+      </c>
+      <c r="G32" s="3">
         <v>7000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6700</v>
-      </c>
-      <c r="K32" s="3">
-        <v>6900</v>
       </c>
       <c r="L32" s="3">
         <v>6900</v>
       </c>
       <c r="M32" s="3">
+        <v>6900</v>
+      </c>
+      <c r="N32" s="3">
         <v>7200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>11800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>5300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>5500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>4600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>4900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>5200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>36500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>21000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>14600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>10000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>17300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>15600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>15100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>17000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>13600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>22500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>20300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>6300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>10300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>4100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2698,167 +2773,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>36500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>21000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>14600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>10000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>17300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>15600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>15100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>17000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>10500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>13600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>22500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>20300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>6300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>10300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>4100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44198</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44107</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44016</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43925</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2886,8 +2970,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2915,85 +3000,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>218800</v>
+      </c>
+      <c r="E41" s="3">
         <v>159300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>103600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>96100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>114700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>47600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>59000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>99300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>98400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>67600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>97200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>81800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>84500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>44900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>52700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>32200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>63900</v>
-      </c>
-      <c r="U41" s="3">
-        <v>34000</v>
       </c>
       <c r="V41" s="3">
         <v>34000</v>
       </c>
       <c r="W41" s="3">
+        <v>34000</v>
+      </c>
+      <c r="X41" s="3">
         <v>44700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>50300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>38900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>39200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3069,316 +3158,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>223200</v>
+      </c>
+      <c r="E43" s="3">
         <v>237500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>230400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>196500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>196700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>188100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>166500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>121600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>123100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>108500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>112700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>78600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>90100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>86300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>85400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>87500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>106600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>86000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>75600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>60300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>55900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>57300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>47400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>41600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>50900</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>112300</v>
+      </c>
+      <c r="E44" s="3">
         <v>110200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>97400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>91400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>79200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>78200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>72400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>60300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>54700</v>
-      </c>
-      <c r="L44" s="3">
-        <v>51600</v>
       </c>
       <c r="M44" s="3">
         <v>51600</v>
       </c>
       <c r="N44" s="3">
+        <v>51600</v>
+      </c>
+      <c r="O44" s="3">
         <v>43900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>47600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>45700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>48000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>44700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>46500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>35300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>35500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>37800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>39100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>35100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>33900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>30500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E45" s="3">
         <v>28800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>39800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>37700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>40900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>34900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>28500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>20600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>18700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>17300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>13900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>15800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>12700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>14600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>12400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>9300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>8700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>11100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>11000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>582600</v>
+      </c>
+      <c r="E46" s="3">
         <v>535800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>471100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>421800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>431600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>348900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>326300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>301700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>297800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>277100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>249200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>233600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>234100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>230400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>194100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>195600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>197900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>195900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>159800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>144500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>149100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>151300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>131300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>122400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>119900</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3454,162 +3558,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>278300</v>
+      </c>
+      <c r="E48" s="3">
         <v>281100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>274800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>276400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>239400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>242500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>225900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>173700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>171600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>169400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>171800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>154600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>149300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>148500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>149800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>115700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>113100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>93400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>88200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>84100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>84500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>84400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>84300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>168400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>739100</v>
+      </c>
+      <c r="E49" s="3">
         <v>747500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>751000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>759100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>681500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>684900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>684200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>586200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>589600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>593400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>603700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>533600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>537500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>541600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>545600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>549600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>548400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>219800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>221400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>223100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>224800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>225800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>227400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>229000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>230600</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3685,8 +3798,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3762,49 +3878,52 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E52" s="3">
         <v>2000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>900</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1000</v>
       </c>
       <c r="O52" s="3">
         <v>1000</v>
       </c>
       <c r="P52" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q52" s="3">
         <v>1200</v>
@@ -3816,31 +3935,34 @@
         <v>1200</v>
       </c>
       <c r="T52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U52" s="3">
         <v>1300</v>
-      </c>
-      <c r="U52" s="3">
-        <v>1400</v>
       </c>
       <c r="V52" s="3">
         <v>1400</v>
       </c>
       <c r="W52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X52" s="3">
         <v>1300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3916,85 +4038,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1602600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1566400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1499100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1460600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1356300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1280200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1239700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1062500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1060100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1040900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1025600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>922700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>921800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>921500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>890700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>862200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>860500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>510400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>470800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>453100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>459600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>462900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>444100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>436600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>434900</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4022,8 +4150,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4051,85 +4180,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>180500</v>
+      </c>
+      <c r="E57" s="3">
         <v>138000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>103100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>40000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>81800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>91100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>84100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>23500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>96100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>89500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>72100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>13400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>58800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>67500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>54300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>69900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>45900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>39600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>12900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>40300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>33000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>26000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>7900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4173,16 +4306,16 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>100</v>
-      </c>
-      <c r="R58" s="3">
-        <v>200</v>
       </c>
       <c r="S58" s="3">
         <v>200</v>
       </c>
       <c r="T58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U58" s="3">
         <v>300</v>
@@ -4194,69 +4327,72 @@
         <v>300</v>
       </c>
       <c r="X58" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y58" s="3">
         <v>700</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
-      </c>
       <c r="Z58" s="3">
         <v>0</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E59" s="3">
         <v>52000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>48000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>95800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>45600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>45100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>36500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>67000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>42700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>53300</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>8</v>
@@ -4264,11 +4400,11 @@
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W59" s="3">
         <v>28200</v>
-      </c>
-      <c r="W59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X59" s="3" t="s">
         <v>8</v>
@@ -4276,245 +4412,257 @@
       <c r="Y59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA59" s="3">
         <v>14900</v>
       </c>
-      <c r="AA59" s="3" t="s">
+      <c r="AB59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>195800</v>
+      </c>
+      <c r="E60" s="3">
         <v>190000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>151100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>135900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>127500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>136200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>120600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>90500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>102800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>95600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>82400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>56100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>65800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>76900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>64100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>68700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>70200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>46200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>39900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>41400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>40600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>33700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>26000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>22800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>626600</v>
+      </c>
+      <c r="E61" s="3">
         <v>626300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>626000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>625700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>565700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>474500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>474300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>412100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>411800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>421500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>421200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>369000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>367900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>367500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>367000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>366600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>373900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>215100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>214600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>212700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>231200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>248600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>248500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>247900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>247200</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>127100</v>
+      </c>
+      <c r="E62" s="3">
         <v>129700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>128800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>133100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>111600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>114900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>101100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>74800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>74100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>72800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>76900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>66100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>62400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>62800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>63800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>41300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>40100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>40300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>31700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>23700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>33300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>33200</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>33100</v>
       </c>
       <c r="Z62" s="3">
         <v>33100</v>
       </c>
       <c r="AA62" s="3">
+        <v>33100</v>
+      </c>
+      <c r="AB62" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4590,8 +4738,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4667,8 +4818,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4744,85 +4898,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>989100</v>
+      </c>
+      <c r="E66" s="3">
         <v>985600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>945500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>931500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>839400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>758600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>730400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>577400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>588800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>589900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>580600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>491200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>496200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>507200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>494900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>476600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>484200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>301600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>286200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>277800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>305100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>315500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>307700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>303800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>307300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4850,8 +5010,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4927,8 +5088,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5004,8 +5168,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5081,8 +5248,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5158,85 +5328,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>193900</v>
+      </c>
+      <c r="E72" s="3">
         <v>163600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>127100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>106400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>91900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>98700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>92100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>79900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>69900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>52600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>50400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>34800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>31500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>16400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-19400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-32900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-55500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-64700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-85000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-91300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-101600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-104600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-108800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5312,8 +5488,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5389,8 +5568,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5466,85 +5648,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>613500</v>
+      </c>
+      <c r="E76" s="3">
         <v>580800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>553700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>529100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>516800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>521600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>509300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>485100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>471400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>451000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>445100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>431500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>425600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>414400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>395800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>385500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>376300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>208800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>184500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>175300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>154500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>147500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>136400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>132900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>127700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5620,167 +5808,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44198</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44107</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44016</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43925</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>36500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>21000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>14600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>10000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>17300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>15600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>15100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>17000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>10500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>13600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>22500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>20300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>6300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>10300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>4100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5808,85 +6005,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E83" s="3">
         <v>14500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>16500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>14100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>11400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>6400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>4700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>4600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>4200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5962,8 +6163,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6039,8 +6243,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6116,8 +6323,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6193,8 +6403,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6270,85 +6483,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>67200</v>
+      </c>
+      <c r="E89" s="3">
         <v>67600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>17300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>43900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>10100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>18900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>35600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>26900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>43700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>35800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>24700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>31000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>8900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>14400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>17700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>14300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>13200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6376,85 +6595,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7800</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-9600</v>
       </c>
       <c r="H91" s="3">
         <v>-9600</v>
       </c>
       <c r="I91" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="J91" s="3">
         <v>-6500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6530,8 +6753,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6607,85 +6833,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-122000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-21600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-92400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-362000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-4400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6713,8 +6945,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6790,8 +7023,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6867,8 +7103,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6944,8 +7183,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7021,85 +7263,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>59500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>65300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>60900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-10000</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>51800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>305600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2200</v>
-      </c>
-      <c r="V100" s="3">
-        <v>-19900</v>
       </c>
       <c r="W100" s="3">
         <v>-19900</v>
       </c>
       <c r="X100" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7175,81 +7423,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E102" s="3">
         <v>55600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-18600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>67100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-11400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-41300</v>
-      </c>
-      <c r="J102" s="3">
-        <v>1000</v>
       </c>
       <c r="K102" s="3">
         <v>1000</v>
       </c>
       <c r="L102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M102" s="3">
         <v>30800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-29700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>15400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>39600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>20500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-31800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>29900</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-10700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-5600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>11400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>9300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>PGTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,352 +665,365 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44562</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44198</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44107</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44016</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43925</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>340900</v>
+      </c>
+      <c r="E8" s="3">
         <v>385800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>406500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>358700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>304400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>300400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>285500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>271100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>221600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>238000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>202800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>220200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>174800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>197800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>198600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>173700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>189900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>199100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>169300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>140300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>134100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>126900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>137400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>112700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>109500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>219800</v>
+      </c>
+      <c r="E9" s="3">
         <v>236000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>241400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>224100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>196100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>196200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>188500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>177100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>142800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>151100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>128300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>139100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>118700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>127800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>125600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>112500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>124100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>126100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>109300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>95500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>91200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>87100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>92800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>81000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>77900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>88700</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>121100</v>
+      </c>
+      <c r="E10" s="3">
         <v>149800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>165100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>134600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>108300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>104200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>97000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>94000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>78800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>86900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>74500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>81100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>56100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>70000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>73000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>61200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>65800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>73000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>60000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>44800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>42900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>39800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>44600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>31700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>31600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1039,8 +1052,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1119,8 +1133,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1199,76 +1216,79 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>12600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>26500</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1500</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>4400</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>300</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>3100</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
@@ -1279,8 +1299,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1359,8 +1382,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1386,168 +1412,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>322700</v>
       </c>
       <c r="E17" s="3">
+        <v>338400</v>
+      </c>
+      <c r="F17" s="3">
         <v>350900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>320000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>275100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>264200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>246900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>202300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>208100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>194200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>193300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>163900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>172400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>169700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>156500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>169800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>170400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>139400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>127200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>117600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>112100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>117500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>103800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>98700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>18200</v>
       </c>
       <c r="E18" s="3">
+        <v>47400</v>
+      </c>
+      <c r="F18" s="3">
         <v>55600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>38700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>29300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>21300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>24200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>19300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>29900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>26900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>25400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>28900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>17200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>20100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>28700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>29900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>13100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>16500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>14800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>19900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>8900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>10800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1576,168 +1609,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-7700</v>
       </c>
       <c r="E20" s="3">
-        <v>-7100</v>
+        <v>-6900</v>
       </c>
       <c r="F20" s="3">
         <v>-7100</v>
       </c>
       <c r="G20" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-7000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6700</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-6900</v>
       </c>
       <c r="M20" s="3">
         <v>-6900</v>
       </c>
       <c r="N20" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="O20" s="3">
         <v>-7200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-11800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-5300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-4600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-4900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-5200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>25600</v>
       </c>
       <c r="E21" s="3">
+        <v>54600</v>
+      </c>
+      <c r="F21" s="3">
         <v>62900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>48100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>36400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>26200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>28200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>23700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>33800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>29700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>13400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>27600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>30800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>19100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>21600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>23300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>31100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>13600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>16400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>14300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>20000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>8600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>9800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1816,168 +1856,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E23" s="3">
         <v>40500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>48500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>31600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>22300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>13400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>16700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>23000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>19700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>19000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>22200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>10500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>13000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>16900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>26300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>9000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>11200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>9300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>15300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>4000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>5600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E24" s="3">
         <v>10100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5100</v>
-      </c>
-      <c r="R24" s="3">
-        <v>2300</v>
       </c>
       <c r="S24" s="3">
         <v>2300</v>
       </c>
       <c r="T24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="U24" s="3">
         <v>3300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>5100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2056,168 +2105,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>7700</v>
       </c>
       <c r="E26" s="3">
+        <v>30400</v>
+      </c>
+      <c r="F26" s="3">
         <v>36500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>23800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>10700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>15600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>15100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>17000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>8300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>10700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>13600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>22500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>6300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>10300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>4100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>11000</v>
       </c>
       <c r="E27" s="3">
+        <v>30300</v>
+      </c>
+      <c r="F27" s="3">
         <v>36500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>21000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>14600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>17300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>15600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>15100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>17000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>10700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>13600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>22500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>7300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>7900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>6300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>10300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>4100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2296,8 +2354,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2328,8 +2389,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2346,11 +2407,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-200</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2358,11 +2419,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>12400</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2376,8 +2437,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2456,8 +2520,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2536,168 +2603,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>7700</v>
       </c>
       <c r="E32" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="F32" s="3">
         <v>7100</v>
       </c>
       <c r="G32" s="3">
+        <v>7100</v>
+      </c>
+      <c r="H32" s="3">
         <v>7000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6700</v>
-      </c>
-      <c r="L32" s="3">
-        <v>6900</v>
       </c>
       <c r="M32" s="3">
         <v>6900</v>
       </c>
       <c r="N32" s="3">
+        <v>6900</v>
+      </c>
+      <c r="O32" s="3">
         <v>7200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>11800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>5300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>5500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>4600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>4900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>5200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>11000</v>
       </c>
       <c r="E33" s="3">
+        <v>30300</v>
+      </c>
+      <c r="F33" s="3">
         <v>36500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>21000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>14600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>17300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>15600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>15100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>17000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>10500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>13600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>22500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>7300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>20300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>6300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>10300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>4100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2776,173 +2852,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>11000</v>
       </c>
       <c r="E35" s="3">
+        <v>30300</v>
+      </c>
+      <c r="F35" s="3">
         <v>36500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>21000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>14600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>17300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>15600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>15100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>17000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>10500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>13600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>22500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>7300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>20300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>6300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>10300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>4100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44562</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44198</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44107</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44016</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43925</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2971,8 +3056,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3001,88 +3087,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>66500</v>
+      </c>
+      <c r="E41" s="3">
         <v>218800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>159300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>103600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>96100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>114700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>47600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>59000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>99300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>98400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>67600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>97200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>81800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>84500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>44900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>52700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>32200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>63900</v>
-      </c>
-      <c r="V41" s="3">
-        <v>34000</v>
       </c>
       <c r="W41" s="3">
         <v>34000</v>
       </c>
       <c r="X41" s="3">
+        <v>34000</v>
+      </c>
+      <c r="Y41" s="3">
         <v>44700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>50300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>38900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>39200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3161,168 +3251,177 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>208000</v>
+      </c>
+      <c r="E43" s="3">
         <v>223200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>237500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>230400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>196500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>196700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>188100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>166500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>121600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>123100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>108500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>112700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>78600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>90100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>86300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>85400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>87500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>106600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>86000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>75600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>60300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>55900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>57300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>47400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>41600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>50900</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>112700</v>
+      </c>
+      <c r="E44" s="3">
         <v>112300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>110200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>97400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>91400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>79200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>78200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>72400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>60300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>54700</v>
-      </c>
-      <c r="M44" s="3">
-        <v>51600</v>
       </c>
       <c r="N44" s="3">
         <v>51600</v>
       </c>
       <c r="O44" s="3">
+        <v>51600</v>
+      </c>
+      <c r="P44" s="3">
         <v>43900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>47600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>45700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>48000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>44700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>46500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>35300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>35500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>37800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>39100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>35100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>33900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>30500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3330,159 +3429,165 @@
         <v>28300</v>
       </c>
       <c r="E45" s="3">
+        <v>28300</v>
+      </c>
+      <c r="F45" s="3">
         <v>28800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>39800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>37700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>40900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>34900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>28500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>18700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>17300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>14600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>15800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>12700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>10700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>14600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>12400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>9300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>8700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>11100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>11000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>415500</v>
+      </c>
+      <c r="E46" s="3">
         <v>582600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>535800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>471100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>421800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>431600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>348900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>326300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>301700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>297800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>277100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>249200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>233600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>234100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>230400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>194100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>195600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>197900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>195900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>159800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>144500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>149100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>151300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>131300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>122400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>119900</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3561,168 +3666,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>312500</v>
+      </c>
+      <c r="E48" s="3">
         <v>278300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>281100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>274800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>276400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>239400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>242500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>225900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>173700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>171600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>169400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>171800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>154600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>149300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>148500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>149800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>115700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>113100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>93400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>88200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>84100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>84500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>84400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>84300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>168400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>907500</v>
+      </c>
+      <c r="E49" s="3">
         <v>739100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>747500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>751000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>759100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>681500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>684900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>684200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>586200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>589600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>593400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>603700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>533600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>537500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>541600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>545600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>549600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>548400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>219800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>221400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>223100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>224800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>225800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>227400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>229000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>230600</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3801,8 +3915,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3881,52 +3998,55 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E52" s="3">
         <v>2500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>900</v>
-      </c>
-      <c r="O52" s="3">
-        <v>1000</v>
       </c>
       <c r="P52" s="3">
         <v>1000</v>
       </c>
       <c r="Q52" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="R52" s="3">
         <v>1200</v>
@@ -3938,31 +4058,34 @@
         <v>1200</v>
       </c>
       <c r="U52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V52" s="3">
         <v>1300</v>
-      </c>
-      <c r="V52" s="3">
-        <v>1400</v>
       </c>
       <c r="W52" s="3">
         <v>1400</v>
       </c>
       <c r="X52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y52" s="3">
         <v>1300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4041,88 +4164,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1640200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1602600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1566400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1499100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1460600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1356300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1280200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1239700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1062500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1060100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1040900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1025600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>922700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>921800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>921500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>890700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>862200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>860500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>510400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>470800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>453100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>459600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>462900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>444100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>436600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>434900</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4151,8 +4280,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4181,88 +4311,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>180500</v>
+        <v>43700</v>
       </c>
       <c r="E57" s="3">
+        <v>146100</v>
+      </c>
+      <c r="F57" s="3">
         <v>138000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>103100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>40000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>81800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>91100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>84100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>23500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>96100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>89500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>72100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>13400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>58800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>67500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>54300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>15300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>69900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>45900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>39600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>12900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>40300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>33000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>26000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>7900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4309,16 +4443,16 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>100</v>
-      </c>
-      <c r="S58" s="3">
-        <v>200</v>
       </c>
       <c r="T58" s="3">
         <v>200</v>
       </c>
       <c r="U58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V58" s="3">
         <v>300</v>
@@ -4330,72 +4464,75 @@
         <v>300</v>
       </c>
       <c r="Y58" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z58" s="3">
         <v>700</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
-      </c>
       <c r="AA58" s="3">
         <v>0</v>
       </c>
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15200</v>
+        <v>141600</v>
       </c>
       <c r="E59" s="3">
+        <v>49600</v>
+      </c>
+      <c r="F59" s="3">
         <v>52000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>48000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>95800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>45600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>45100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>36500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>67000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>42700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>53300</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>8</v>
@@ -4403,11 +4540,11 @@
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X59" s="3">
         <v>28200</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y59" s="3" t="s">
         <v>8</v>
@@ -4415,254 +4552,266 @@
       <c r="Z59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AA59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB59" s="3">
         <v>14900</v>
       </c>
-      <c r="AB59" s="3" t="s">
+      <c r="AC59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>185400</v>
+      </c>
+      <c r="E60" s="3">
         <v>195800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>190000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>151100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>135900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>127500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>136200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>120600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>90500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>102800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>95600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>82400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>56100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>65800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>76900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>64100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>68700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>70200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>46200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>39900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>41400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>40600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>33700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>26000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>22800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>642100</v>
+      </c>
+      <c r="E61" s="3">
         <v>626600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>626300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>626000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>625700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>565700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>474500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>474300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>412100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>411800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>421500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>421200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>369000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>367900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>367500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>367000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>366600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>373900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>215100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>214600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>212700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>231200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>248600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>248500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>247900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>247200</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E62" s="3">
         <v>127100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>129700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>128800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>133100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>111600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>114900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>101100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>74800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>74100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>72800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>76900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>66100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>62400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>62800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>63800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>41300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>40100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>40300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>31700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>23700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>33300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>33200</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>33100</v>
       </c>
       <c r="AA62" s="3">
         <v>33100</v>
       </c>
       <c r="AB62" s="3">
+        <v>33100</v>
+      </c>
+      <c r="AC62" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4741,8 +4890,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4821,8 +4973,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4901,88 +5056,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1012200</v>
+      </c>
+      <c r="E66" s="3">
         <v>989100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>985600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>945500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>931500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>839400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>758600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>730400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>577400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>588800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>589900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>580600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>491200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>496200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>507200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>494900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>476600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>484200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>301600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>286200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>277800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>305100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>315500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>307700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>303800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>307300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5011,8 +5172,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5091,8 +5253,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5171,8 +5336,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5251,8 +5419,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5331,88 +5502,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>204900</v>
+      </c>
+      <c r="E72" s="3">
         <v>193900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>163600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>127100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>106400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>91900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>98700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>92100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>79900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>69900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>52600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>50400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>34800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>31500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>16400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-19400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-32900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-55500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-64700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-85000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-91300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-101600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-104600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-108800</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5491,8 +5668,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5571,8 +5751,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5651,88 +5834,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>628000</v>
+      </c>
+      <c r="E76" s="3">
         <v>613500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>580800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>553700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>529100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>516800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>521600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>509300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>485100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>471400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>451000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>445100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>431500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>425600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>414400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>395800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>385500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>376300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>208800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>184500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>175300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>154500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>147500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>136400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>132900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>127700</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5811,173 +6000,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44562</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44198</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44107</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44016</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43925</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>11000</v>
       </c>
       <c r="E81" s="3">
+        <v>30300</v>
+      </c>
+      <c r="F81" s="3">
         <v>36500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>21000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>14600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>17300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>15600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>15100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>17000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>10500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>13600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>22500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>7300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>20300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>6300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>10300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>4100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6006,88 +6204,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E83" s="3">
         <v>14100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>14500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>16500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>14100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>6400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>5100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>4700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>4600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>4200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6166,8 +6368,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6246,8 +6451,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6326,8 +6534,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6406,8 +6617,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6486,88 +6700,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E89" s="3">
         <v>67200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>67600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>17300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>43900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>11300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>18900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>35600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>10900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>26900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>9700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>43700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>35800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>24700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>31000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>8900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>14400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>17700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>14300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>13200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6596,88 +6816,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7800</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-9600</v>
       </c>
       <c r="I91" s="3">
         <v>-9600</v>
       </c>
       <c r="J91" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-6500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-8200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-4400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6756,8 +6980,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6836,88 +7063,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-208400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-122000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-21600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-92400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-362000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-4400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6946,8 +7179,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7026,8 +7260,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7106,8 +7343,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7186,8 +7426,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7266,88 +7509,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>59500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>65300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>60900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-10000</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>51800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>305600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2200</v>
-      </c>
-      <c r="W100" s="3">
-        <v>-19900</v>
       </c>
       <c r="X100" s="3">
         <v>-19900</v>
       </c>
       <c r="Y100" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7426,84 +7675,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-152300</v>
+      </c>
+      <c r="E102" s="3">
         <v>59600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>55600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-18600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>67100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-11400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-41300</v>
-      </c>
-      <c r="K102" s="3">
-        <v>1000</v>
       </c>
       <c r="L102" s="3">
         <v>1000</v>
       </c>
       <c r="M102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N102" s="3">
         <v>30800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-29700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>15400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>39600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-7700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>20500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-31800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>29900</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-10700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>11400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>9300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>PGTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,365 +665,378 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44562</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44198</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44107</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44016</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43925</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>376800</v>
+      </c>
+      <c r="E8" s="3">
         <v>340900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>385800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>406500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>358700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>304400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>300400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>285500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>271100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>221600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>238000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>202800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>220200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>174800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>197800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>198600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>173700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>189900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>199100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>169300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>140300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>134100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>126900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>137400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>112700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>109500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>227600</v>
+      </c>
+      <c r="E9" s="3">
         <v>219800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>236000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>241400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>224100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>196100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>196200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>188500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>177100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>142800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>151100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>128300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>139100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>118700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>127800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>125600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>112500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>124100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>126100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>109300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>95500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>91200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>87100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>92800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>81000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>77900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>88700</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>149200</v>
+      </c>
+      <c r="E10" s="3">
         <v>121100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>149800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>165100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>134600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>108300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>104200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>97000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>94000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>78800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>86900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>74500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>81100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>56100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>70000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>73000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>61200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>65800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>73000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>60000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>44800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>42900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>39800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>44600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>31700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>31600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1053,8 +1066,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1136,8 +1150,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1219,79 +1236,82 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>12600</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>26500</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>700</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>12300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1500</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>4400</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>300</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>3100</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
@@ -1302,8 +1322,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1385,8 +1408,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1413,174 +1439,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>323500</v>
+      </c>
+      <c r="E17" s="3">
         <v>322700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>338400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>350900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>320000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>275100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>264200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>246900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>202300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>208100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>194200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>193300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>163900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>172400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>169700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>156500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>169800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>170400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>139400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>127200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>117600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>112100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>117500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>103800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>98700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E18" s="3">
         <v>18200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>47400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>55600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>38700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>29300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>21300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>24200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>19300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>29900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>26900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>25400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>28900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>17200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>20100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>28700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>29900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>13100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>16500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>14800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>19900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>8900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>10800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1610,174 +1643,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6900</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-7100</v>
       </c>
       <c r="G20" s="3">
         <v>-7100</v>
       </c>
       <c r="H20" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-7000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6700</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-6900</v>
       </c>
       <c r="N20" s="3">
         <v>-6900</v>
       </c>
       <c r="O20" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="P20" s="3">
         <v>-7200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-11800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-4100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-5300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-5500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-4600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-4900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-5200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>61300</v>
+      </c>
+      <c r="E21" s="3">
         <v>25600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>54600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>62900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>48100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>36400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>26200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>28200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>23700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>33800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>29700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>13400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>27600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>30800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>19100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>21600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>23300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>31100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>13600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>16400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>14300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>20000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>8600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>9800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1859,174 +1899,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E23" s="3">
         <v>10500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>40500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>48500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>31600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>22300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>13400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>16700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>23000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>19700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>19000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>22200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>10500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>13000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>16900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>26300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>9000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>11200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>9300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>15300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>4000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>5600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E24" s="3">
         <v>2800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5100</v>
-      </c>
-      <c r="S24" s="3">
-        <v>2300</v>
       </c>
       <c r="T24" s="3">
         <v>2300</v>
       </c>
       <c r="U24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="V24" s="3">
         <v>3300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>3000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>5100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2108,174 +2157,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E26" s="3">
         <v>7700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>30400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>36500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>23800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>10700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>15100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>17000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>8300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>10700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>13600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>22500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>7900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>6300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>10300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>4100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E27" s="3">
         <v>11000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>30300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>36500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>21000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>14600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>17300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>15100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>17000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>8300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>10700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>13600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>22500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>7300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>7900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>6300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>10300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>3000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>4100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2357,8 +2415,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2392,8 +2453,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2410,11 +2471,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-200</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2422,11 +2483,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>12400</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2440,8 +2501,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2523,8 +2587,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2606,174 +2673,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E32" s="3">
         <v>7700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6900</v>
-      </c>
-      <c r="F32" s="3">
-        <v>7100</v>
       </c>
       <c r="G32" s="3">
         <v>7100</v>
       </c>
       <c r="H32" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I32" s="3">
         <v>7000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6700</v>
-      </c>
-      <c r="M32" s="3">
-        <v>6900</v>
       </c>
       <c r="N32" s="3">
         <v>6900</v>
       </c>
       <c r="O32" s="3">
+        <v>6900</v>
+      </c>
+      <c r="P32" s="3">
         <v>7200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>11800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>4100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>5300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>5500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>4600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>4900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>5200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E33" s="3">
         <v>11000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>30300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>36500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>21000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>14600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>17300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>15600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>15100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>17000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>8300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>10500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>13600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>22500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>7300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>20300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>6300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>10300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>3000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>4100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2855,179 +2931,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E35" s="3">
         <v>11000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>30300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>36500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>21000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>14600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>17300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>15600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>15100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>17000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>8300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>10500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>13600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>22500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>7300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>20300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>6300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>10300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>3000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>4100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44562</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44198</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44107</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44016</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43925</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3057,8 +3142,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3088,91 +3174,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E41" s="3">
         <v>66500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>218800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>159300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>103600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>96100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>114700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>47600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>59000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>99300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>98400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>67600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>97200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>81800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>84500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>44900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>52700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>32200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>63900</v>
-      </c>
-      <c r="W41" s="3">
-        <v>34000</v>
       </c>
       <c r="X41" s="3">
         <v>34000</v>
       </c>
       <c r="Y41" s="3">
+        <v>34000</v>
+      </c>
+      <c r="Z41" s="3">
         <v>44700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>50300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>38900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>39200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3254,340 +3344,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>209800</v>
+      </c>
+      <c r="E43" s="3">
         <v>208000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>223200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>237500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>230400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>196500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>196700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>188100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>166500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>121600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>123100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>108500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>112700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>78600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>90100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>86300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>85400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>87500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>106600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>86000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>75600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>60300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>55900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>57300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>47400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>41600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>50900</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>114900</v>
+      </c>
+      <c r="E44" s="3">
         <v>112700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>112300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>110200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>97400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>91400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>79200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>78200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>72400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>60300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>54700</v>
-      </c>
-      <c r="N44" s="3">
-        <v>51600</v>
       </c>
       <c r="O44" s="3">
         <v>51600</v>
       </c>
       <c r="P44" s="3">
+        <v>51600</v>
+      </c>
+      <c r="Q44" s="3">
         <v>43900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>47600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>45700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>48000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>44700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>46500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>35300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>35500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>37800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>39100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>35100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>33900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>30500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28300</v>
+        <v>28900</v>
       </c>
       <c r="E45" s="3">
         <v>28300</v>
       </c>
       <c r="F45" s="3">
+        <v>28300</v>
+      </c>
+      <c r="G45" s="3">
         <v>28800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>39800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>37700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>40900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>34900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>28500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>20600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>18700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>17300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>13900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>14600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>13900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>15800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>12700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>10700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>14600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>12400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>9300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>8700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>11100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>11000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>402000</v>
+      </c>
+      <c r="E46" s="3">
         <v>415500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>582600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>535800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>471100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>421800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>431600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>348900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>326300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>301700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>297800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>277100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>249200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>233600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>234100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>230400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>194100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>195600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>197900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>195900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>159800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>144500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>149100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>151300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>131300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>122400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>119900</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3669,174 +3774,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>314400</v>
+      </c>
+      <c r="E48" s="3">
         <v>312500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>278300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>281100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>274800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>276400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>239400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>242500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>225900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>173700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>171600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>169400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>171800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>154600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>149300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>148500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>149800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>115700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>113100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>93400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>88200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>84100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>84500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>84400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>84300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>168400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>901600</v>
+      </c>
+      <c r="E49" s="3">
         <v>907500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>739100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>747500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>751000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>759100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>681500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>684900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>684200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>586200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>589600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>593400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>603700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>533600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>537500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>541600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>545600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>549600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>548400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>219800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>221400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>223100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>224800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>225800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>227400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>229000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>230600</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3918,8 +4032,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4001,55 +4118,58 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E52" s="3">
         <v>4800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>900</v>
-      </c>
-      <c r="P52" s="3">
-        <v>1000</v>
       </c>
       <c r="Q52" s="3">
         <v>1000</v>
       </c>
       <c r="R52" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="S52" s="3">
         <v>1200</v>
@@ -4061,31 +4181,34 @@
         <v>1200</v>
       </c>
       <c r="V52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W52" s="3">
         <v>1300</v>
-      </c>
-      <c r="W52" s="3">
-        <v>1400</v>
       </c>
       <c r="X52" s="3">
         <v>1400</v>
       </c>
       <c r="Y52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Z52" s="3">
         <v>1300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1100</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4167,91 +4290,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1624400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1640200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1602600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1566400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1499100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1460600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1356300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1280200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1239700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1062500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1060100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1040900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1025600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>922700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>921800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>921500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>890700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>862200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>860500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>510400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>470800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>453100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>459600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>462900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>444100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>436600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>434900</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4281,8 +4410,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4312,91 +4442,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>118400</v>
+      </c>
+      <c r="E57" s="3">
         <v>43700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>146100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>138000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>103100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>40000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>81800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>91100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>84100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>23500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>96100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>89500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>72100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>13400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>58800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>67500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>54300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>15300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>69900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>45900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>39600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>12900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>40300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>33000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>26000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>7900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4446,16 +4580,16 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>100</v>
-      </c>
-      <c r="T58" s="3">
-        <v>200</v>
       </c>
       <c r="U58" s="3">
         <v>200</v>
       </c>
       <c r="V58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W58" s="3">
         <v>300</v>
@@ -4467,75 +4601,78 @@
         <v>300</v>
       </c>
       <c r="Z58" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA58" s="3">
         <v>700</v>
       </c>
-      <c r="AA58" s="3">
-        <v>0</v>
-      </c>
       <c r="AB58" s="3">
         <v>0</v>
       </c>
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E59" s="3">
         <v>141600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>49600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>52000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>48000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>95800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>45600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>45100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>36500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>67000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>42700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>53300</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>8</v>
@@ -4543,11 +4680,11 @@
       <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y59" s="3">
         <v>28200</v>
-      </c>
-      <c r="Y59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z59" s="3" t="s">
         <v>8</v>
@@ -4555,263 +4692,275 @@
       <c r="AA59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AB59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC59" s="3">
         <v>14900</v>
       </c>
-      <c r="AC59" s="3" t="s">
+      <c r="AD59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>159600</v>
+      </c>
+      <c r="E60" s="3">
         <v>185400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>195800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>190000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>151100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>135900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>127500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>136200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>120600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>90500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>102800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>95600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>82400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>56100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>65800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>76900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>64100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>68700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>70200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>46200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>39900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>41400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>40600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>33700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>26000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>22800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>645100</v>
+      </c>
+      <c r="E61" s="3">
         <v>642100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>626600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>626300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>626000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>625700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>565700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>474500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>474300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>412100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>411800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>421500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>421200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>369000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>367900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>367500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>367000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>366600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>373900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>215100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>214600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>212700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>231200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>248600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>248500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>247900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>247200</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>148700</v>
+      </c>
+      <c r="E62" s="3">
         <v>150000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>127100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>129700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>128800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>133100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>111600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>114900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>101100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>74800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>74100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>72800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>76900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>66100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>62400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>62800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>63800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>41300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>40100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>40300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>31700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>23700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>33300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>33200</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>33100</v>
       </c>
       <c r="AB62" s="3">
         <v>33100</v>
       </c>
       <c r="AC62" s="3">
+        <v>33100</v>
+      </c>
+      <c r="AD62" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4893,8 +5042,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4976,8 +5128,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5059,91 +5214,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>990100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1012200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>989100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>985600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>945500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>931500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>839400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>758600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>730400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>577400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>588800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>589900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>580600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>491200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>496200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>507200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>494900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>476600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>484200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>301600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>286200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>277800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>305100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>315500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>307700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>303800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>307300</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5173,8 +5334,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5256,8 +5418,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5339,8 +5504,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5422,8 +5590,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5505,91 +5676,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>236500</v>
+      </c>
+      <c r="E72" s="3">
         <v>204900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>193900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>163600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>127100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>106400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>91900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>98700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>92100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>79900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>69900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>52600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>50400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>34800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>31500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>16400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-19400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-32900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-55500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-64700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-85000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-91300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-101600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-104600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-108800</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5671,8 +5848,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5754,8 +5934,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5837,91 +6020,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>634300</v>
+      </c>
+      <c r="E76" s="3">
         <v>628000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>613500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>580800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>553700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>529100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>516800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>521600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>509300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>485100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>471400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>451000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>445100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>431500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>425600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>414400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>395800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>385500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>376300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>208800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>184500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>175300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>154500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>147500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>136400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>132900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>127700</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6003,179 +6192,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44562</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44198</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44107</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44016</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43925</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E81" s="3">
         <v>11000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>30300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>36500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>21000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>14600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>17300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>15600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>15100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>17000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>8300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>10500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>13600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>22500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>7300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>20300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>6300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>10300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>3000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>4100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6205,91 +6403,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E83" s="3">
         <v>15100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>14100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>14500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>16500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>14100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>12800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>6400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>5200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>5100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>4700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>4600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>4200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6371,8 +6573,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6454,8 +6659,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6537,8 +6745,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6620,8 +6831,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6703,91 +6917,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E89" s="3">
         <v>44200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>67200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>67600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>17300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>43900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>11300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>18900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>35600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>10900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>26900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>9700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>43700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>35800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>24700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>31000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>8900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>14400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>17700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>14300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>13200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6817,91 +7037,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7800</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-9600</v>
       </c>
       <c r="J91" s="3">
         <v>-9600</v>
       </c>
       <c r="K91" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="L91" s="3">
         <v>-6500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-8200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-4400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6983,8 +7207,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7066,91 +7293,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-208400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-122000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-21600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-92400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-362000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-6600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-5100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-4400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7180,8 +7413,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7263,8 +7497,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7346,8 +7583,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7429,8 +7669,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7512,91 +7755,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="E100" s="3">
         <v>11900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>59500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>65300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>60900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-10000</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>51800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-8000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>305600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2200</v>
-      </c>
-      <c r="X100" s="3">
-        <v>-19900</v>
       </c>
       <c r="Y100" s="3">
         <v>-19900</v>
       </c>
       <c r="Z100" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7678,87 +7927,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-152300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>59600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>55600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-18600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>67100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-11400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-41300</v>
-      </c>
-      <c r="L102" s="3">
-        <v>1000</v>
       </c>
       <c r="M102" s="3">
         <v>1000</v>
       </c>
       <c r="N102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O102" s="3">
         <v>30800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-29700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>15400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>39600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-7700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>20500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-31800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>29900</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-10700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>11400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>9300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>PGTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,378 +665,390 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44198</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44107</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44016</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43925</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>384900</v>
+      </c>
+      <c r="E8" s="3">
         <v>376800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>340900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>385800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>406500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>358700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>304400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>285500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>271100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>221600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>238000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>202800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>220200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>174800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>197800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>198600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>173700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>189900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>199100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>169300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>140300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>134100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>126900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>137400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>112700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>109500</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>231000</v>
+      </c>
+      <c r="E9" s="3">
         <v>227600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>219800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>236000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>241400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>224100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>196100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>196200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>188500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>177100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>142800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>151100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>128300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>139100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>118700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>127800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>125600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>112500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>124100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>126100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>109300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>95500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>91200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>87100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>92800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>81000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>77900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>88700</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>153900</v>
+      </c>
+      <c r="E10" s="3">
         <v>149200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>121100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>149800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>165100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>134600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>108300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>104200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>97000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>94000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>78800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>86900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>74500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>81100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>56100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>70000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>73000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>61200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>65800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>73000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>60000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>44800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>42900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>39800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>44600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>31700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>31600</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1067,8 +1079,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1153,8 +1166,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1239,82 +1255,85 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>12600</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>26500</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>700</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>12300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1500</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>4400</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>300</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>3100</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB14" s="3">
         <v>0</v>
@@ -1325,8 +1344,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1411,8 +1433,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1440,180 +1465,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>333500</v>
+      </c>
+      <c r="E17" s="3">
         <v>323500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>322700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>338400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>350900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>320000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>275100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>264200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>246900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>202300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>208100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>194200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>193300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>163900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>172400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>169700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>156500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>169800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>170400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>139400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>127200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>117600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>112100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>117500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>103800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>98700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E18" s="3">
         <v>53300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>18200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>47400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>55600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>38700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>29300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>21300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>24200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>19300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>29900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>26900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>25400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>28900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>17200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>20100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>28700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>29900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>13100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>16500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>14800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>19900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>8900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>10800</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1644,180 +1676,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-7700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6900</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-7100</v>
       </c>
       <c r="H20" s="3">
         <v>-7100</v>
       </c>
       <c r="I20" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-7000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6700</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-6900</v>
       </c>
       <c r="O20" s="3">
         <v>-6900</v>
       </c>
       <c r="P20" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-7100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-11800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-5500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-4600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-4900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-5200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E21" s="3">
         <v>61300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>25600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>54600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>62900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>48100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>36400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>26200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>28200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>23700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>33800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>12700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>29700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>13400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>27600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>30800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>19100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>21600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>23300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>31100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>13600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>16400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>14300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>20000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>8600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>9800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1902,180 +1941,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E23" s="3">
         <v>45700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>40500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>48500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>31600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>22300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>13400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>16700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>23000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>19700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>19000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>22200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>10500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>13000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>16900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>26300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>9000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>11200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>9300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>15300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>4000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>5600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E24" s="3">
         <v>11200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5100</v>
-      </c>
-      <c r="T24" s="3">
-        <v>2300</v>
       </c>
       <c r="U24" s="3">
         <v>2300</v>
       </c>
       <c r="V24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="W24" s="3">
         <v>3300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>3300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>3000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>5100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2160,180 +2208,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E26" s="3">
         <v>34400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>30400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>36500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>23800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>10000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>15600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>15100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>17000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>8300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>10700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>13600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>22500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>7300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>7900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>6300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>10300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>3000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>4100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E27" s="3">
         <v>32400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>11000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>30300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>36500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>21000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>14600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>10000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>17300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>15600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>15100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>17000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>8300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>10700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>13600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>22500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>7300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>7900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>6300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>10300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>3000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>4100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2418,8 +2475,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2456,8 +2516,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2474,11 +2534,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-200</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2486,11 +2546,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>12400</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2504,8 +2564,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2590,8 +2653,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2676,180 +2742,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E32" s="3">
         <v>7600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6900</v>
-      </c>
-      <c r="G32" s="3">
-        <v>7100</v>
       </c>
       <c r="H32" s="3">
         <v>7100</v>
       </c>
       <c r="I32" s="3">
+        <v>7100</v>
+      </c>
+      <c r="J32" s="3">
         <v>7000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6700</v>
-      </c>
-      <c r="N32" s="3">
-        <v>6900</v>
       </c>
       <c r="O32" s="3">
         <v>6900</v>
       </c>
       <c r="P32" s="3">
+        <v>6900</v>
+      </c>
+      <c r="Q32" s="3">
         <v>7200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>7100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>11800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>4100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>5300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>5500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>4600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>4900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>5200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E33" s="3">
         <v>32400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>11000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>30300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>36500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>21000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>14600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>17300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>15600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>15100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>17000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>8300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>10500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>13600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>22500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>7300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>20300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>6300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>10300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>3000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>4100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2934,185 +3009,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E35" s="3">
         <v>32400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>11000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>30300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>36500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>21000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>14600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>17300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>15600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>15100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>17000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>8300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>10500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>13600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>22500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>7300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>20300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>6300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>10300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>3000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>4100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44198</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44107</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44016</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43925</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3143,8 +3227,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3175,94 +3260,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E41" s="3">
         <v>48300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>66500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>218800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>159300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>103600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>96100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>114700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>47600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>59000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>100300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>99300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>98400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>67600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>97200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>81800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>84500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>44900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>52700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>32200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>63900</v>
-      </c>
-      <c r="X41" s="3">
-        <v>34000</v>
       </c>
       <c r="Y41" s="3">
         <v>34000</v>
       </c>
       <c r="Z41" s="3">
+        <v>34000</v>
+      </c>
+      <c r="AA41" s="3">
         <v>44700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>50300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>38900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>39200</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3347,352 +3436,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>201400</v>
+      </c>
+      <c r="E43" s="3">
         <v>209800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>208000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>223200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>237500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>230400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>196500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>196700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>188100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>166500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>121600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>123100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>108500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>112700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>78600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>90100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>86300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>85400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>87500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>106600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>86000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>75600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>60300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>55900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>57300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>47400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>41600</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>50900</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>117200</v>
+      </c>
+      <c r="E44" s="3">
         <v>114900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>112700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>112300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>110200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>97400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>91400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>79200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>78200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>72400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>60300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>54700</v>
-      </c>
-      <c r="O44" s="3">
-        <v>51600</v>
       </c>
       <c r="P44" s="3">
         <v>51600</v>
       </c>
       <c r="Q44" s="3">
+        <v>51600</v>
+      </c>
+      <c r="R44" s="3">
         <v>43900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>47600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>45700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>48000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>44700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>46500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>35300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>35500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>37800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>39100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>35100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>33900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>30500</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E45" s="3">
         <v>28900</v>
-      </c>
-      <c r="E45" s="3">
-        <v>28300</v>
       </c>
       <c r="F45" s="3">
         <v>28300</v>
       </c>
       <c r="G45" s="3">
+        <v>28300</v>
+      </c>
+      <c r="H45" s="3">
         <v>28800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>39800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>37700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>40900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>34900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>28500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>20600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>18700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>17300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>14600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>13900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>15800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>10800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>12700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>10700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>14600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>12400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>9300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>8700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>11100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>11000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>392800</v>
+      </c>
+      <c r="E46" s="3">
         <v>402000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>415500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>582600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>535800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>471100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>421800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>431600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>348900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>326300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>301700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>297800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>277100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>249200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>233600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>234100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>230400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>194100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>195600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>197900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>195900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>159800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>144500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>149100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>151300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>131300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>122400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>119900</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3777,180 +3881,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>316000</v>
+      </c>
+      <c r="E48" s="3">
         <v>314400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>312500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>278300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>281100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>274800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>276400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>239400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>242500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>225900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>173700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>171600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>169400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>171800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>154600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>149300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>148500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>149800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>115700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>113100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>93400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>88200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>84100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>84500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>84400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>84300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>168400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>895700</v>
+      </c>
+      <c r="E49" s="3">
         <v>901600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>907500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>739100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>747500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>751000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>759100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>681500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>684900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>684200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>586200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>589600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>593400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>603700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>533600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>537500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>541600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>545600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>549600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>548400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>219800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>221400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>223100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>224800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>225800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>227400</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>229000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>230600</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4035,8 +4148,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4121,58 +4237,61 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E52" s="3">
         <v>6400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>900</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>1000</v>
       </c>
       <c r="R52" s="3">
         <v>1000</v>
       </c>
       <c r="S52" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T52" s="3">
         <v>1200</v>
@@ -4184,31 +4303,34 @@
         <v>1200</v>
       </c>
       <c r="W52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X52" s="3">
         <v>1300</v>
-      </c>
-      <c r="X52" s="3">
-        <v>1400</v>
       </c>
       <c r="Y52" s="3">
         <v>1400</v>
       </c>
       <c r="Z52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AA52" s="3">
         <v>1300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1100</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4293,94 +4415,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1611400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1624400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1640200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1602600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1566400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1499100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1460600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1356300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1280200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1239700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1062500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1060100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1040900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1025600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>922700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>921800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>921500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>890700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>862200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>860500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>510400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>470800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>453100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>459600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>462900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>444100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>436600</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>434900</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4411,8 +4539,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4443,94 +4572,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E57" s="3">
         <v>118400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>43700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>146100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>138000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>103100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>40000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>81800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>91100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>84100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>23500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>96100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>89500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>72100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>13400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>58800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>67500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>54300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>15300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>69900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>45900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>39600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>12900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>40300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>33000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>26000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>7900</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4583,16 +4716,16 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>100</v>
-      </c>
-      <c r="U58" s="3">
-        <v>200</v>
       </c>
       <c r="V58" s="3">
         <v>200</v>
       </c>
       <c r="W58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X58" s="3">
         <v>300</v>
@@ -4604,19 +4737,22 @@
         <v>300</v>
       </c>
       <c r="AA58" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB58" s="3">
         <v>700</v>
       </c>
-      <c r="AB58" s="3">
-        <v>0</v>
-      </c>
       <c r="AC58" s="3">
         <v>0</v>
       </c>
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4624,58 +4760,58 @@
         <v>41200</v>
       </c>
       <c r="E59" s="3">
+        <v>41200</v>
+      </c>
+      <c r="F59" s="3">
         <v>141600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>49600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>52000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>48000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>95800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>45600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>45100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>36500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>67000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>42700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>53300</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>8</v>
@@ -4683,11 +4819,11 @@
       <c r="X59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z59" s="3">
         <v>28200</v>
-      </c>
-      <c r="Z59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA59" s="3" t="s">
         <v>8</v>
@@ -4695,272 +4831,284 @@
       <c r="AB59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AC59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD59" s="3">
         <v>14900</v>
       </c>
-      <c r="AD59" s="3" t="s">
+      <c r="AE59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>144200</v>
+      </c>
+      <c r="E60" s="3">
         <v>159600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>185400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>195800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>190000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>151100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>135900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>127500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>136200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>120600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>90500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>102800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>95600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>82400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>56100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>65800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>76900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>64100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>68700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>70200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>46200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>39900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>41400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>40600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>33700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>26000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>22800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>670400</v>
+      </c>
+      <c r="E61" s="3">
         <v>645100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>642100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>626600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>626300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>626000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>625700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>565700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>474500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>474300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>412100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>411800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>421500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>421200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>369000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>367900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>367500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>367000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>366600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>373900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>215100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>214600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>212700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>231200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>248600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>248500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>247900</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>247200</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E62" s="3">
         <v>148700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>150000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>127100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>129700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>128800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>133100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>111600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>114900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>101100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>74800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>74100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>72800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>76900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>66100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>62400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>62800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>63800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>41300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>40100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>40300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>31700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>23700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>33300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>33200</v>
-      </c>
-      <c r="AB62" s="3">
-        <v>33100</v>
       </c>
       <c r="AC62" s="3">
         <v>33100</v>
       </c>
       <c r="AD62" s="3">
+        <v>33100</v>
+      </c>
+      <c r="AE62" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5045,8 +5193,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5131,8 +5282,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5217,94 +5371,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>963600</v>
+      </c>
+      <c r="E66" s="3">
         <v>990100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1012200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>989100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>985600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>945500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>931500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>839400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>758600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>730400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>577400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>588800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>589900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>580600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>491200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>496200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>507200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>494900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>476600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>484200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>301600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>286200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>277800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>305100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>315500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>307700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>303800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>307300</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5335,8 +5495,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5421,8 +5582,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5507,8 +5671,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5593,8 +5760,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5679,94 +5849,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>267300</v>
+      </c>
+      <c r="E72" s="3">
         <v>236500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>204900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>193900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>163600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>127100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>106400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>91900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>98700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>92100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>79900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>69900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>52600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>50400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>34800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>31500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>16400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-19400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-32900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-55500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-64700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-85000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-91300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-101600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-104600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-108800</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5851,8 +6027,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5937,8 +6116,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6023,94 +6205,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>647800</v>
+      </c>
+      <c r="E76" s="3">
         <v>634300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>628000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>613500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>580800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>553700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>529100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>516800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>521600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>509300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>485100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>471400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>451000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>445100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>431500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>425600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>414400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>395800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>385500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>376300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>208800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>184500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>175300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>154500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>147500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>136400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>132900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>127700</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6195,185 +6383,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44198</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44107</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44016</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43925</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E81" s="3">
         <v>32400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>11000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>30300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>36500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>21000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>14600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>17300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>15600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>15100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>17000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>8300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>10500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>13600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>22500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>7300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>20300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>6300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>10300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>3000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>4100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6404,94 +6601,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E83" s="3">
         <v>15700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>15100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>14100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>14500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>16500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>14100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>13200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>6400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>4600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>5200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>5100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>4700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>4600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>4200</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6576,8 +6777,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6662,8 +6866,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6748,8 +6955,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6834,8 +7044,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6920,94 +7133,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E89" s="3">
         <v>23900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>44200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>67200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>67600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>17300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>43900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>11300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>18900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>35600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>10900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>26900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>9700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>43700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>35800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>24700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>31000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>8900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>14400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>17700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>14300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>2700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>13200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7038,94 +7257,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-20600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7800</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-9600</v>
       </c>
       <c r="K91" s="3">
         <v>-9600</v>
       </c>
       <c r="L91" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="M91" s="3">
         <v>-6500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-8200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-8200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-3100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-4400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7210,8 +7433,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7296,94 +7522,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-208400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-122000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-21600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-92400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-362000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-5100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-3100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-4400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7414,8 +7646,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7500,8 +7733,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7586,8 +7822,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7672,8 +7911,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7758,94 +8000,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-30200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>11900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>59500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>65300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>60900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-10000</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>51800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-8000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>305600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2200</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>-19900</v>
       </c>
       <c r="Z100" s="3">
         <v>-19900</v>
       </c>
       <c r="AA100" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="AB100" s="3">
         <v>200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>500</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7930,90 +8178,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-152300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>59600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>55600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-18600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>67100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-41300</v>
-      </c>
-      <c r="M102" s="3">
-        <v>1000</v>
       </c>
       <c r="N102" s="3">
         <v>1000</v>
       </c>
       <c r="O102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P102" s="3">
         <v>30800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-29700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>15400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>39600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-7700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>20500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-31800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>29900</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-10700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-5600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>11400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>9300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGTI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>PGTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,390 +665,403 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44562</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44289</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44198</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44107</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44016</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43925</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43463</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43099</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42826</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>399900</v>
+      </c>
+      <c r="E8" s="3">
         <v>384900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>376800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>340900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>385800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>406500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>358700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>304400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>285500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>271100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>221600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>238000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>202800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>220200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>174800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>197800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>198600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>173700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>189900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>199100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>169300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>140300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>134100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>126900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>137400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>112700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>109500</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>129800</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>238200</v>
+      </c>
+      <c r="E9" s="3">
         <v>231000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>227600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>219800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>236000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>241400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>224100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>196100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>196200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>188500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>177100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>142800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>151100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>128300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>139100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>118700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>127800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>125600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>112500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>124100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>126100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>109300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>95500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>91200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>87100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>92800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>81000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>77900</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>88700</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>161700</v>
+      </c>
+      <c r="E10" s="3">
         <v>153900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>149200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>121100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>149800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>165100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>134600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>108300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>104200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>97000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>94000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>78800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>86900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>74500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>81100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>56100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>70000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>73000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>61200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>65800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>73000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>60000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>44800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>42900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>39800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>44600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>31700</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>31600</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1080,8 +1093,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1169,8 +1183,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1258,85 +1275,88 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E14" s="3">
         <v>2500</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>12600</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>26500</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>700</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>12300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1500</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>4400</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>300</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>3100</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC14" s="3">
         <v>0</v>
@@ -1347,8 +1367,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1436,8 +1459,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1466,186 +1492,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>339200</v>
+      </c>
+      <c r="E17" s="3">
         <v>333500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>323500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>322700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>338400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>350900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>320000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>275100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>264200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>246900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>202300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>208100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>194200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>193300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>163900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>172400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>169700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>156500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>169800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>170400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>139400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>127200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>117600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>112100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>117500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>103800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>98700</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>108300</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>60700</v>
+      </c>
+      <c r="E18" s="3">
         <v>51400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>53300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>18200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>47400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>55600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>38700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>29300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>21300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>24200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>19300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>29900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>26900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>25400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>28900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>17200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>20100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>28700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>29900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>13100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>16500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>14800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>19900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>8900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>10800</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1677,186 +1710,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-8200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-7600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6900</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-7100</v>
       </c>
       <c r="I20" s="3">
         <v>-7100</v>
       </c>
       <c r="J20" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-7000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6700</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-6900</v>
       </c>
       <c r="P20" s="3">
         <v>-6900</v>
       </c>
       <c r="Q20" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="R20" s="3">
         <v>-7200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-6700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-7100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-11800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-5500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-4600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-4900</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-5200</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>68300</v>
+      </c>
+      <c r="E21" s="3">
         <v>58600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>61300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>25600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>54600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>62900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>48100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>36400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>26200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>28200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>23700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>33800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>12700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>29700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>13400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>27600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>30800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>19100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>21600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>23300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>31100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>13600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>16400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>14300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>20000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>8600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>9800</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>20100</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1944,186 +1984,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>52900</v>
+      </c>
+      <c r="E23" s="3">
         <v>43200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>45700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>10500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>40500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>48500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>31600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>22300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>13400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>16700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>12500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>23000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>19700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>19000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>22200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>10500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>13000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>16900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>26300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>9000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>11200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>9300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>15300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>4000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>5600</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E24" s="3">
         <v>11500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5100</v>
-      </c>
-      <c r="U24" s="3">
-        <v>2300</v>
       </c>
       <c r="V24" s="3">
         <v>2300</v>
       </c>
       <c r="W24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="X24" s="3">
         <v>3300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>3800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>3300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>3000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>5100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>1500</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2211,186 +2260,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E26" s="3">
         <v>31800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>34400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>30400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>36500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>23800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>10000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>17300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>15600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>15100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>17000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>8300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>10700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>13600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>22500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>7300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>7900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>6300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>10300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>3000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>4100</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E27" s="3">
         <v>31000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>32400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>11000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>30300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>36500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>21000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>14600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>10000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>17300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>15600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>15100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>17000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>8300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>10700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>13600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>22500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>7300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>7900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>6300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>10300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>3000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>4100</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2478,8 +2536,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2519,8 +2580,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2537,11 +2598,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>-200</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2549,11 +2610,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
         <v>12400</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2567,8 +2628,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2656,8 +2720,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2745,186 +2812,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E32" s="3">
         <v>8200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6900</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7100</v>
       </c>
       <c r="I32" s="3">
         <v>7100</v>
       </c>
       <c r="J32" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K32" s="3">
         <v>7000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6700</v>
-      </c>
-      <c r="O32" s="3">
-        <v>6900</v>
       </c>
       <c r="P32" s="3">
         <v>6900</v>
       </c>
       <c r="Q32" s="3">
+        <v>6900</v>
+      </c>
+      <c r="R32" s="3">
         <v>7200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>6700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>7100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>11800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>3600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>4100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>5300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>5500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>4600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>4900</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>5200</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E33" s="3">
         <v>31000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>32400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>11000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>30300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>36500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>21000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>14600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>17300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>15600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>15100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>17000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>8300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>10500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>13600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>22500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>7300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>20300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>6300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>10300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>3000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>4100</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3012,191 +3088,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E35" s="3">
         <v>31000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>32400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>11000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>30300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>36500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>21000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>14600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>17300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>15600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>15100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>17000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>8300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>10500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>13600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>22500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>7300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>20300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>6300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>10300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>3000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>4100</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44562</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44289</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44198</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44107</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44016</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43925</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43463</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43099</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42826</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3228,8 +3313,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3261,97 +3347,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E41" s="3">
         <v>39400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>48300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>66500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>218800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>159300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>103600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>96100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>114700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>47600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>59000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>100300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>99300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>98400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>67600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>97200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>81800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>84500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>44900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>52700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>32200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>63900</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>34000</v>
       </c>
       <c r="Z41" s="3">
         <v>34000</v>
       </c>
       <c r="AA41" s="3">
+        <v>34000</v>
+      </c>
+      <c r="AB41" s="3">
         <v>44700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>50300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>38900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>39200</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3439,364 +3529,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>203200</v>
+      </c>
+      <c r="E43" s="3">
         <v>201400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>209800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>208000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>223200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>237500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>230400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>196500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>196700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>188100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>166500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>121600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>123100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>108500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>112700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>78600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>90100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>86300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>85400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>87500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>106600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>86000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>75600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>60300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>55900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>57300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>47400</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>41600</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>50900</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>117900</v>
+      </c>
+      <c r="E44" s="3">
         <v>117200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>114900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>112700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>112300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>110200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>97400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>91400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>79200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>78200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>72400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>60300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>54700</v>
-      </c>
-      <c r="P44" s="3">
-        <v>51600</v>
       </c>
       <c r="Q44" s="3">
         <v>51600</v>
       </c>
       <c r="R44" s="3">
+        <v>51600</v>
+      </c>
+      <c r="S44" s="3">
         <v>43900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>47600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>45700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>48000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>44700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>46500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>35300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>35500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>37800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>39100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>35100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>33900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>30500</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E45" s="3">
         <v>34900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>28900</v>
-      </c>
-      <c r="F45" s="3">
-        <v>28300</v>
       </c>
       <c r="G45" s="3">
         <v>28300</v>
       </c>
       <c r="H45" s="3">
+        <v>28300</v>
+      </c>
+      <c r="I45" s="3">
         <v>28800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>39800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>37700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>40900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>34900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>28500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>19500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>20600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>18700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>17300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>13900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>14600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>13900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>15800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>10800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>12700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>10700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>14600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>12400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>9300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>8700</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>11100</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>11000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>389400</v>
+      </c>
+      <c r="E46" s="3">
         <v>392800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>402000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>415500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>582600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>535800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>471100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>421800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>431600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>348900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>326300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>301700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>297800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>277100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>249200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>233600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>234100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>230400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>194100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>195600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>197900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>195900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>159800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>144500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>149100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>151300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>131300</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>122400</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>119900</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3884,186 +3989,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>319600</v>
+      </c>
+      <c r="E48" s="3">
         <v>316000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>314400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>312500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>278300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>281100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>274800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>276400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>239400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>242500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>225900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>173700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>171600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>169400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>171800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>154600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>149300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>148500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>149800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>115700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>113100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>93400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>88200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>84100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>84500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>84400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>84300</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>168400</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>83300</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>889900</v>
+      </c>
+      <c r="E49" s="3">
         <v>895700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>901600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>907500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>739100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>747500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>751000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>759100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>681500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>684900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>684200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>586200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>589600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>593400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>603700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>533600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>537500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>541600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>545600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>549600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>548400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>219800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>221400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>223100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>224800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>225800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>227400</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>229000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>230600</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4151,8 +4265,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4240,61 +4357,64 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E52" s="3">
         <v>6900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>900</v>
-      </c>
-      <c r="R52" s="3">
-        <v>1000</v>
       </c>
       <c r="S52" s="3">
         <v>1000</v>
       </c>
       <c r="T52" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="U52" s="3">
         <v>1200</v>
@@ -4306,31 +4426,34 @@
         <v>1200</v>
       </c>
       <c r="X52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y52" s="3">
         <v>1300</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>1400</v>
       </c>
       <c r="Z52" s="3">
         <v>1400</v>
       </c>
       <c r="AA52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AB52" s="3">
         <v>1300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1200</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1100</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4418,97 +4541,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1608700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1611400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1624400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1640200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1602600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1566400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1499100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1460600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1356300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1280200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1239700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1062500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1060100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1040900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1025600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>922700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>921800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>921500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>890700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>862200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>860500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>510400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>470800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>453100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>459600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>462900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>444100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>436600</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>434900</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4540,8 +4669,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4573,97 +4703,101 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>129700</v>
+      </c>
+      <c r="E57" s="3">
         <v>103000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>118400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>43700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>146100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>138000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>103100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>40000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>81800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>91100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>84100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>23500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>96100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>89500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>72100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>13400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>58800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>67500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>54300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>15300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>69900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>45900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>39600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>12900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>40300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>33000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>26000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>7900</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4719,16 +4853,16 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>100</v>
-      </c>
-      <c r="V58" s="3">
-        <v>200</v>
       </c>
       <c r="W58" s="3">
         <v>200</v>
       </c>
       <c r="X58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y58" s="3">
         <v>300</v>
@@ -4740,81 +4874,84 @@
         <v>300</v>
       </c>
       <c r="AB58" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC58" s="3">
         <v>700</v>
       </c>
-      <c r="AC58" s="3">
-        <v>0</v>
-      </c>
       <c r="AD58" s="3">
         <v>0</v>
       </c>
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>41200</v>
+        <v>38800</v>
       </c>
       <c r="E59" s="3">
         <v>41200</v>
       </c>
       <c r="F59" s="3">
+        <v>41200</v>
+      </c>
+      <c r="G59" s="3">
         <v>141600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>49600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>52000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>48000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>95800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>45600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>45100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>36500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>67000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>42700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>9600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>53300</v>
-      </c>
-      <c r="W59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X59" s="3" t="s">
         <v>8</v>
@@ -4822,11 +4959,11 @@
       <c r="Y59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA59" s="3">
         <v>28200</v>
-      </c>
-      <c r="AA59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB59" s="3" t="s">
         <v>8</v>
@@ -4834,281 +4971,293 @@
       <c r="AC59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AD59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE59" s="3">
         <v>14900</v>
       </c>
-      <c r="AE59" s="3" t="s">
+      <c r="AF59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>168500</v>
+      </c>
+      <c r="E60" s="3">
         <v>144200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>159600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>185400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>195800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>190000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>151100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>135900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>127500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>136200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>120600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>90500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>102800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>95600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>82400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>56100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>65800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>76900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>64100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>68700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>70200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>46200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>39900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>41400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>40600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>33700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>26000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>22800</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>631800</v>
+      </c>
+      <c r="E61" s="3">
         <v>670400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>645100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>642100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>626600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>626300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>626000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>625700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>565700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>474500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>474300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>412100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>411800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>421500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>421200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>369000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>367900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>367500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>367000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>366600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>373900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>215100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>214600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>212700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>231200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>248600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>248500</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>247900</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>247200</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>147000</v>
+      </c>
+      <c r="E62" s="3">
         <v>149000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>148700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>150000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>127100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>129700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>128800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>133100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>111600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>114900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>101100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>74800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>74100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>72800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>76900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>66100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>62400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>62800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>63800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>41300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>40100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>40300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>31700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>23700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>33300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>33200</v>
-      </c>
-      <c r="AC62" s="3">
-        <v>33100</v>
       </c>
       <c r="AD62" s="3">
         <v>33100</v>
       </c>
       <c r="AE62" s="3">
+        <v>33100</v>
+      </c>
+      <c r="AF62" s="3">
         <v>27800</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5196,8 +5345,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5285,8 +5437,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5374,97 +5529,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>947300</v>
+      </c>
+      <c r="E66" s="3">
         <v>963600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>990100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1012200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>989100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>985600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>945500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>931500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>839400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>758600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>730400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>577400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>588800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>589900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>580600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>491200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>496200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>507200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>494900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>476600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>484200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>301600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>286200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>277800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>305100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>315500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>307700</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>303800</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>307300</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5496,8 +5657,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5585,8 +5747,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5674,8 +5839,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5763,8 +5931,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5852,97 +6023,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>306500</v>
+      </c>
+      <c r="E72" s="3">
         <v>267300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>236500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>204900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>193900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>163600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>127100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>106400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>91900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>98700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>92100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>79900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>69900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>52600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>50400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>34800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>31500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>16400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-8900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-19400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-32900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-55500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-64700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-85000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-91300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-101600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-104600</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-108800</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6030,8 +6207,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6119,8 +6299,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6208,97 +6391,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>661400</v>
+      </c>
+      <c r="E76" s="3">
         <v>647800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>634300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>628000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>613500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>580800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>553700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>529100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>516800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>521600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>509300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>485100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>471400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>451000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>445100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>431500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>425600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>414400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>395800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>385500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>376300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>208800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>184500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>175300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>154500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>147500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>136400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>132900</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>127700</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6386,191 +6575,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44562</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44289</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44198</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44107</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44016</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43925</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43463</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43099</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42826</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E81" s="3">
         <v>31000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>32400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>11000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>30300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>36500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>21000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>14600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>17300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>15600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>15100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>17000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>8300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>10500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>13600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>22500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>7300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>20300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>6300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>10300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>3000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>4100</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6602,8 +6800,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6611,88 +6810,91 @@
         <v>15400</v>
       </c>
       <c r="E83" s="3">
+        <v>15400</v>
+      </c>
+      <c r="F83" s="3">
         <v>15700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>15100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>14100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>14500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>16500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>14100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>8600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>6400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>4800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>4600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>5200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>5100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>4700</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>4600</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>4200</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6780,8 +6982,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6869,8 +7074,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6958,8 +7166,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7047,8 +7258,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7136,97 +7350,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>79500</v>
+      </c>
+      <c r="E89" s="3">
         <v>36400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>23900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>44200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>67200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>67600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>17300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>43900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>10100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>18900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>35600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>10900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>26900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>9700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>43700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>35800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>24700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>31000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>8900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>14400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>17700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>14300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>2700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>13200</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>9600</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7258,97 +7478,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-20600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7800</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-9600</v>
       </c>
       <c r="L91" s="3">
         <v>-9600</v>
       </c>
       <c r="M91" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="N91" s="3">
         <v>-6500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-8200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-6600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-8200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-3200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-3100</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-4400</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7436,8 +7660,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7525,8 +7752,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7534,88 +7764,91 @@
         <v>-12900</v>
       </c>
       <c r="E94" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-12000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-208400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-122000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-21600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-92400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-7300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-362000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-6600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-5100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-3200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-3100</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-4400</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-6200</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7647,8 +7880,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7736,8 +7970,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7825,8 +8062,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7914,8 +8154,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8003,97 +8246,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-68400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-32300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-30200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>11900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>59500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>65300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>60900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-10000</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>51800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-8000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>305600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2200</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>-19900</v>
       </c>
       <c r="AA100" s="3">
         <v>-19900</v>
       </c>
       <c r="AB100" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="AC100" s="3">
         <v>200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>100</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>500</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8181,93 +8430,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-152300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>59600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>55600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-18600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>67100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-41300</v>
-      </c>
-      <c r="N102" s="3">
-        <v>1000</v>
       </c>
       <c r="O102" s="3">
         <v>1000</v>
       </c>
       <c r="P102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q102" s="3">
         <v>30800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-29700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>15400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>39600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-7700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>20500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-31800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>29900</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-10700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-5600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>11400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>9300</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>400</v>
       </c>
     </row>
